--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29721ADE-9E6F-40A8-A50F-9ABE44CC6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDD43E-B877-44A1-9C7B-0FDCBEF8CD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>MemberID</t>
   </si>
@@ -301,11 +301,17 @@
   <si>
     <t>Total loan Taken</t>
   </si>
+  <si>
+    <t>Installment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,17 +399,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,30 +779,31 @@
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -843,12 +851,12 @@
       <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -861,18 +869,18 @@
         <v>45292</v>
       </c>
       <c r="D3">
-        <f ca="1">DATEDIF($C3,$B$24,"YM")</f>
+        <f t="shared" ref="D3:D22" ca="1" si="0">DATEDIF($C3,$B$24,"YM")</f>
         <v>6</v>
       </c>
       <c r="E3">
-        <f ca="1">$D3*4</f>
+        <f t="shared" ref="E3:E22" ca="1" si="1">$D3*4</f>
         <v>24</v>
       </c>
       <c r="F3">
         <v>1523</v>
       </c>
       <c r="G3">
-        <f ca="1">$E3*$F3</f>
+        <f t="shared" ref="G3:G22" ca="1" si="2">$E3*$F3</f>
         <v>36552</v>
       </c>
       <c r="H3">
@@ -888,13 +896,13 @@
       <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.22</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <f>$O3/12</f>
         <v>1.8333333333333333E-2</v>
       </c>
@@ -928,22 +936,22 @@
         <v>45292</v>
       </c>
       <c r="D4">
-        <f ca="1">DATEDIF($C4,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E4">
-        <f ca="1">$D4*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F4">
         <v>4370</v>
       </c>
       <c r="G4">
-        <f ca="1">$E4*$F4</f>
+        <f t="shared" ca="1" si="2"/>
         <v>104880</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:J22" ca="1" si="0">$G4*3</f>
+        <f t="shared" ref="H4:H22" ca="1" si="3">$G4*3</f>
         <v>314640</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -955,13 +963,13 @@
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>0.21</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <f>$O4/12</f>
         <v>1.7499999999999998E-2</v>
       </c>
@@ -974,7 +982,7 @@
       <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="10">
         <v>0.2</v>
       </c>
     </row>
@@ -989,22 +997,22 @@
         <v>45292</v>
       </c>
       <c r="D5">
-        <f ca="1">DATEDIF($C5,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E5">
-        <f ca="1">$D5*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F5">
         <v>4880</v>
       </c>
       <c r="G5">
-        <f ca="1">$E5*$F5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>117120</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>351360</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1016,13 +1024,13 @@
       <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>0.23</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <f>$O5/12</f>
         <v>1.9166666666666669E-2</v>
       </c>
@@ -1035,7 +1043,7 @@
       <c r="U5" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="10">
         <v>0.2</v>
       </c>
     </row>
@@ -1050,22 +1058,22 @@
         <v>45292</v>
       </c>
       <c r="D6">
-        <f ca="1">DATEDIF($C6,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E6">
-        <f ca="1">$D6*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F6">
         <v>3656</v>
       </c>
       <c r="G6">
-        <f ca="1">$E6*$F6</f>
+        <f t="shared" ca="1" si="2"/>
         <v>87744</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>263232</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1077,13 +1085,13 @@
       <c r="M6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <f>$O6/12</f>
         <v>1.1666666666666667E-2</v>
       </c>
@@ -1102,22 +1110,22 @@
         <v>45292</v>
       </c>
       <c r="D7">
-        <f ca="1">DATEDIF($C7,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E7">
-        <f ca="1">$D7*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F7">
         <v>2818</v>
       </c>
       <c r="G7">
-        <f ca="1">$E7*$F7</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67632</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>202896</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1129,7 +1137,7 @@
       <c r="M7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="O7" t="s">
@@ -1153,22 +1161,22 @@
         <v>45292</v>
       </c>
       <c r="D8">
-        <f ca="1">DATEDIF($C8,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E8">
-        <f ca="1">$D8*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F8">
         <v>2868</v>
       </c>
       <c r="G8">
-        <f ca="1">$E8*$F8</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68832</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>206496</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1190,22 +1198,22 @@
         <v>45292</v>
       </c>
       <c r="D9">
-        <f ca="1">DATEDIF($C9,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E9">
-        <f ca="1">$D9*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F9">
         <v>3623</v>
       </c>
       <c r="G9">
-        <f ca="1">$E9*$F9</f>
+        <f t="shared" ca="1" si="2"/>
         <v>86952</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>260856</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1231,35 +1239,35 @@
         <v>45292</v>
       </c>
       <c r="D10">
-        <f ca="1">DATEDIF($C10,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E10">
-        <f ca="1">$D10*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F10">
         <v>2562</v>
       </c>
       <c r="G10">
-        <f ca="1">$E10*$F10</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61488</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>184464</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>17000</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1272,22 +1280,22 @@
         <v>45292</v>
       </c>
       <c r="D11">
-        <f ca="1">DATEDIF($C11,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E11">
-        <f ca="1">$D11*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F11">
         <v>1457</v>
       </c>
       <c r="G11">
-        <f ca="1">$E11*$F11</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34968</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>104904</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1296,10 +1304,10 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1312,22 +1320,22 @@
         <v>45292</v>
       </c>
       <c r="D12">
-        <f ca="1">DATEDIF($C12,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E12">
-        <f ca="1">$D12*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F12">
         <v>1555</v>
       </c>
       <c r="G12">
-        <f ca="1">$E12*$F12</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37320</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>111960</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -1353,6 +1361,9 @@
       </c>
       <c r="R12" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="V12" s="1"/>
     </row>
@@ -1367,35 +1378,35 @@
         <v>45292</v>
       </c>
       <c r="D13">
-        <f ca="1">DATEDIF($C13,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E13">
-        <f ca="1">$D13*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F13">
         <v>1625</v>
       </c>
       <c r="G13">
-        <f ca="1">$E13*$F13</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39000</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>117000</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <v>100000</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="N13" t="str">
-        <f>VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" ref="N13:N19" si="4">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
         <v>L02</v>
       </c>
       <c r="O13">
@@ -1405,7 +1416,7 @@
       <c r="P13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <f>VLOOKUP($P13,$M$2:$Q$7,4,FALSE)</f>
         <v>1.7499999999999998E-2</v>
       </c>
@@ -1413,6 +1424,10 @@
         <f>VLOOKUP($P13,$M$2:$Q$7,5,FALSE)</f>
         <v>15</v>
       </c>
+      <c r="S13" s="17">
+        <f>-PMT($Q13,$R13,$O13)</f>
+        <v>24031.381096417233</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1425,22 +1440,22 @@
         <v>45292</v>
       </c>
       <c r="D14">
-        <f ca="1">DATEDIF($C14,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E14">
-        <f ca="1">$D14*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F14">
         <v>2490</v>
       </c>
       <c r="G14">
-        <f ca="1">$E14*$F14</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59760</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>179280</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1453,23 +1468,27 @@
         <v>12</v>
       </c>
       <c r="N14" t="str">
-        <f>VLOOKUP($M14,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>L01</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O19" si="1">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
+        <f t="shared" ref="O14:O19" si="5">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
         <v>17000</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="13">
-        <f t="shared" ref="Q14:Q19" si="2">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
+      <c r="Q14" s="11">
+        <f t="shared" ref="Q14:Q19" si="6">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
         <v>1.8333333333333333E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R19" si="3">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
+        <f t="shared" ref="R14:R19" si="7">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
         <v>24</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" ref="S14:S19" si="8">-PMT($Q14,$R14,$O14)</f>
+        <v>881.92862901150772</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1483,18 +1502,18 @@
         <v>45292</v>
       </c>
       <c r="D15">
-        <f ca="1">DATEDIF($C15,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="E15">
-        <f ca="1">$D15*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F15">
         <v>3080</v>
       </c>
       <c r="G15">
-        <f ca="1">$E15*$F15</f>
+        <f t="shared" ca="1" si="2"/>
         <v>73920</v>
       </c>
       <c r="H15">
@@ -1504,30 +1523,34 @@
       <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <v>22000</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N15" t="str">
-        <f>VLOOKUP($M15,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>L04</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="11">
+        <f t="shared" si="6"/>
         <v>1.1666666666666667E-2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="8"/>
+        <v>5634.9772872595904</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1541,22 +1564,22 @@
         <v>45323</v>
       </c>
       <c r="D16">
-        <f ca="1">DATEDIF($C16,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f ca="1">$D16*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F16">
         <v>714</v>
       </c>
       <c r="G16">
-        <f ca="1">$E16*$F16</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14280</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>42840</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -1569,26 +1592,30 @@
         <v>17</v>
       </c>
       <c r="N16" t="str">
-        <f>VLOOKUP($M16,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>L03</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22000</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="13">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="11">
+        <f t="shared" si="6"/>
         <v>1.9166666666666669E-2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="17">
+        <f t="shared" si="8"/>
+        <v>2069.6790693834346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1599,22 +1626,22 @@
         <v>45323</v>
       </c>
       <c r="D17">
-        <f ca="1">DATEDIF($C17,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f ca="1">$D17*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F17">
         <v>1552</v>
       </c>
       <c r="G17">
-        <f ca="1">$E17*$F17</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31040</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>93120</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1627,26 +1654,30 @@
         <v>20</v>
       </c>
       <c r="N17" t="str">
-        <f>VLOOKUP($M17,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>L04</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>269280</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="11">
+        <f t="shared" si="6"/>
         <v>1.1666666666666667E-2</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="17">
+        <f t="shared" si="8"/>
+        <v>15173.866839132623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1657,22 +1688,22 @@
         <v>45323</v>
       </c>
       <c r="D18">
-        <f ca="1">DATEDIF($C18,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E18">
-        <f ca="1">$D18*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F18">
         <v>4488</v>
       </c>
       <c r="G18">
-        <f ca="1">$E18*$F18</f>
+        <f t="shared" ca="1" si="2"/>
         <v>89760</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>269280</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -1685,26 +1716,30 @@
         <v>21</v>
       </c>
       <c r="N18" t="str">
-        <f>VLOOKUP($M18,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>L03</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>168480</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="2"/>
+      <c r="Q18" s="11">
+        <f t="shared" si="6"/>
         <v>1.9166666666666669E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="17">
+        <f t="shared" si="8"/>
+        <v>15849.978618623683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1715,22 +1750,22 @@
         <v>45323</v>
       </c>
       <c r="D19">
-        <f ca="1">DATEDIF($C19,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E19">
-        <f ca="1">$D19*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F19">
         <v>2808</v>
       </c>
       <c r="G19">
-        <f ca="1">$E19*$F19</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56160</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>168480</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1743,26 +1778,30 @@
         <v>24</v>
       </c>
       <c r="N19" t="str">
-        <f>VLOOKUP($M19,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>L03</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>190140</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="2"/>
+      <c r="Q19" s="11">
+        <f t="shared" si="6"/>
         <v>1.9166666666666669E-2</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="17">
+        <f t="shared" si="8"/>
+        <v>17887.671738753012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1773,22 +1812,22 @@
         <v>45323</v>
       </c>
       <c r="D20">
-        <f ca="1">DATEDIF($C20,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E20">
-        <f ca="1">$D20*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F20">
         <v>1988</v>
       </c>
       <c r="G20">
-        <f ca="1">$E20*$F20</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39760</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>119280</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1799,7 +1838,7 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1810,22 +1849,22 @@
         <v>45323</v>
       </c>
       <c r="D21">
-        <f ca="1">DATEDIF($C21,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E21">
-        <f ca="1">$D21*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F21">
         <v>4770</v>
       </c>
       <c r="G21">
-        <f ca="1">$E21*$F21</f>
+        <f t="shared" ca="1" si="2"/>
         <v>95400</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>286200</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -1835,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1846,22 +1885,22 @@
         <v>45323</v>
       </c>
       <c r="D22">
-        <f ca="1">DATEDIF($C22,$B$24,"YM")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="E22">
-        <f ca="1">$D22*4</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F22">
         <v>3169</v>
       </c>
       <c r="G22">
-        <f ca="1">$E22*$F22</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63380</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>190140</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -1871,7 +1910,7 @@
         <v>190140</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1881,7 +1920,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1891,7 +1930,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1914,37 +1953,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f>VLOOKUP(L26,A3:J22,10,FALSE)</f>
+        <v>314640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>7</v>
       </c>
@@ -1960,11 +2006,11 @@
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
       <c r="M34">
         <v>9</v>
       </c>

--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDD43E-B877-44A1-9C7B-0FDCBEF8CD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A33C70-6AE1-4D3B-8E4C-9D844FFEC33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,6 +411,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +780,7 @@
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
@@ -1406,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N19" si="4">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" ref="N13:N20" si="4">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
         <v>L02</v>
       </c>
       <c r="O13">
@@ -1472,22 +1473,22 @@
         <v>L01</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O19" si="5">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
+        <f t="shared" ref="O14:O20" si="5">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
         <v>17000</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" ref="Q14:Q19" si="6">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
+        <f t="shared" ref="Q14:Q20" si="6">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
         <v>1.8333333333333333E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R19" si="7">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
+        <f t="shared" ref="R14:R20" si="7">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
         <v>24</v>
       </c>
       <c r="S14" s="17">
-        <f t="shared" ref="S14:S19" si="8">-PMT($Q14,$R14,$O14)</f>
+        <f t="shared" ref="S14:S20" si="8">-PMT($Q14,$R14,$O14)</f>
         <v>881.92862901150772</v>
       </c>
     </row>
@@ -1837,6 +1838,8 @@
         <v>0</v>
       </c>
       <c r="M20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1955,25 +1958,39 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
         <f>VLOOKUP(L26,A3:J22,10,FALSE)</f>
-        <v>314640</v>
+        <v>168480</v>
+      </c>
+      <c r="O26" s="17">
+        <f>VLOOKUP(L26,M13:S19,7,FALSE)</f>
+        <v>15849.978618623683</v>
+      </c>
+      <c r="P26" s="18">
+        <f>VLOOKUP(L26,M13:S19,5,FALSE)*N26</f>
+        <v>3229.2000000000003</v>
+      </c>
+      <c r="Q26" s="17">
+        <f>O26-P26</f>
+        <v>12620.778618623683</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>2</v>
       </c>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>3</v>
       </c>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M29">
@@ -2116,7 +2133,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I23" xr:uid="{59038AD0-06A5-45B2-A516-1150ACDC566C}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:P19" xr:uid="{CCE4B299-799C-49F8-9BF3-74844DA3BD82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:P20" xr:uid="{CCE4B299-799C-49F8-9BF3-74844DA3BD82}">
       <formula1>$M$3:$M$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A33C70-6AE1-4D3B-8E4C-9D844FFEC33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB53E74-46FE-4E71-8C7E-607B6E87273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,62 +1957,184 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L26" t="s">
-        <v>21</v>
+      <c r="L26" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
         <f>VLOOKUP(L26,A3:J22,10,FALSE)</f>
-        <v>168480</v>
+        <v>269280</v>
       </c>
       <c r="O26" s="17">
-        <f>VLOOKUP(L26,M13:S19,7,FALSE)</f>
-        <v>15849.978618623683</v>
+        <f>VLOOKUP($L26,$M$13:$S$19,7,FALSE)</f>
+        <v>15173.866839132623</v>
       </c>
       <c r="P26" s="18">
-        <f>VLOOKUP(L26,M13:S19,5,FALSE)*N26</f>
-        <v>3229.2000000000003</v>
-      </c>
-      <c r="Q26" s="17">
+        <f>VLOOKUP($L26,$M$13:$S$19,5,FALSE)*N26</f>
+        <v>3141.6000000000004</v>
+      </c>
+      <c r="Q26" s="18">
         <f>O26-P26</f>
-        <v>12620.778618623683</v>
+        <v>12032.266839132622</v>
+      </c>
+      <c r="R26" s="17">
+        <f>N26-Q26</f>
+        <v>257247.73316086738</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="O27" s="17"/>
+      <c r="N27" s="17">
+        <f>$R26</f>
+        <v>257247.73316086738</v>
+      </c>
+      <c r="O27" s="17">
+        <f>$O$26</f>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P27" s="18">
+        <f>VLOOKUP($L$26,$M$13:$S$19,5,FALSE)*$N27</f>
+        <v>3001.2235535434529</v>
+      </c>
+      <c r="Q27" s="17">
+        <f>$O$27-$P27</f>
+        <v>12172.643285589169</v>
+      </c>
+      <c r="R27" s="17">
+        <f>$N27-$Q27</f>
+        <v>245075.08987527821</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>3</v>
       </c>
-      <c r="O28" s="17"/>
+      <c r="N28" s="17">
+        <f t="shared" ref="N28:N45" si="9">$R27</f>
+        <v>245075.08987527821</v>
+      </c>
+      <c r="O28" s="17">
+        <f t="shared" ref="O28:O45" si="10">$O$26</f>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" ref="P28:P45" si="11">VLOOKUP($L$26,$M$13:$S$19,5,FALSE)*$N28</f>
+        <v>2859.2093818782459</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" ref="Q28:Q45" si="12">$O$27-$P28</f>
+        <v>12314.657457254376</v>
+      </c>
+      <c r="R28" s="17">
+        <f t="shared" ref="R28:R45" si="13">$N28-$Q28</f>
+        <v>232760.43241802382</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>4</v>
       </c>
+      <c r="N29" s="17">
+        <f t="shared" si="9"/>
+        <v>232760.43241802382</v>
+      </c>
+      <c r="O29" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="11"/>
+        <v>2715.5383782102781</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="12"/>
+        <v>12458.328460922345</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="shared" si="13"/>
+        <v>220302.10395710147</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>5</v>
       </c>
+      <c r="N30" s="17">
+        <f t="shared" si="9"/>
+        <v>220302.10395710147</v>
+      </c>
+      <c r="O30" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="11"/>
+        <v>2570.1912128328504</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="12"/>
+        <v>12603.675626299773</v>
+      </c>
+      <c r="R30" s="17">
+        <f t="shared" si="13"/>
+        <v>207698.42833080169</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>6</v>
       </c>
+      <c r="N31" s="17">
+        <f t="shared" si="9"/>
+        <v>207698.42833080169</v>
+      </c>
+      <c r="O31" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P31" s="18">
+        <f t="shared" si="11"/>
+        <v>2423.1483305260199</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="12"/>
+        <v>12750.718508606602</v>
+      </c>
+      <c r="R31" s="17">
+        <f t="shared" si="13"/>
+        <v>194947.70982219509</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="17">
+        <f t="shared" si="9"/>
+        <v>194947.70982219509</v>
+      </c>
+      <c r="O32" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P32" s="18">
+        <f t="shared" si="11"/>
+        <v>2274.3899479256092</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="12"/>
+        <v>12899.476891207014</v>
+      </c>
+      <c r="R32" s="17">
+        <f t="shared" si="13"/>
+        <v>182048.23293098807</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2021,8 +2143,28 @@
       <c r="M33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="17">
+        <f t="shared" si="9"/>
+        <v>182048.23293098807</v>
+      </c>
+      <c r="O33" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P33" s="18">
+        <f t="shared" si="11"/>
+        <v>2123.8960508615278</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" si="12"/>
+        <v>13049.970788271095</v>
+      </c>
+      <c r="R33" s="17">
+        <f t="shared" si="13"/>
+        <v>168998.26214271697</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -2031,81 +2173,341 @@
       <c r="M34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="17">
+        <f t="shared" si="9"/>
+        <v>168998.26214271697</v>
+      </c>
+      <c r="O34" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P34" s="18">
+        <f t="shared" si="11"/>
+        <v>1971.6463916650314</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="12"/>
+        <v>13202.220447467591</v>
+      </c>
+      <c r="R34" s="17">
+        <f t="shared" si="13"/>
+        <v>155796.04169524938</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="17">
+        <f t="shared" si="9"/>
+        <v>155796.04169524938</v>
+      </c>
+      <c r="O35" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P35" s="18">
+        <f t="shared" si="11"/>
+        <v>1817.6204864445763</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="12"/>
+        <v>13356.246352688046</v>
+      </c>
+      <c r="R35" s="17">
+        <f t="shared" si="13"/>
+        <v>142439.79534256132</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="17">
+        <f t="shared" si="9"/>
+        <v>142439.79534256132</v>
+      </c>
+      <c r="O36" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P36" s="18">
+        <f t="shared" si="11"/>
+        <v>1661.7976123298822</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="12"/>
+        <v>13512.069226802741</v>
+      </c>
+      <c r="R36" s="17">
+        <f t="shared" si="13"/>
+        <v>128927.72611575859</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="17">
+        <f t="shared" si="9"/>
+        <v>128927.72611575859</v>
+      </c>
+      <c r="O37" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P37" s="18">
+        <f t="shared" si="11"/>
+        <v>1504.1568046838502</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="12"/>
+        <v>13669.710034448774</v>
+      </c>
+      <c r="R37" s="17">
+        <f t="shared" si="13"/>
+        <v>115258.01608130982</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="17">
+        <f t="shared" si="9"/>
+        <v>115258.01608130982</v>
+      </c>
+      <c r="O38" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P38" s="18">
+        <f t="shared" si="11"/>
+        <v>1344.676854281948</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="12"/>
+        <v>13829.189984850675</v>
+      </c>
+      <c r="R38" s="17">
+        <f t="shared" si="13"/>
+        <v>101428.82609645915</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="17">
+        <f t="shared" si="9"/>
+        <v>101428.82609645915</v>
+      </c>
+      <c r="O39" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P39" s="18">
+        <f t="shared" si="11"/>
+        <v>1183.3363044586902</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="12"/>
+        <v>13990.530534673933</v>
+      </c>
+      <c r="R39" s="17">
+        <f t="shared" si="13"/>
+        <v>87438.295561785213</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="17">
+        <f t="shared" si="9"/>
+        <v>87438.295561785213</v>
+      </c>
+      <c r="O40" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P40" s="18">
+        <f t="shared" si="11"/>
+        <v>1020.1134482208275</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="12"/>
+        <v>14153.753390911796</v>
+      </c>
+      <c r="R40" s="17">
+        <f t="shared" si="13"/>
+        <v>73284.542170873421</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="17">
+        <f t="shared" si="9"/>
+        <v>73284.542170873421</v>
+      </c>
+      <c r="O41" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P41" s="18">
+        <f t="shared" si="11"/>
+        <v>854.98632532685667</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="12"/>
+        <v>14318.880513805767</v>
+      </c>
+      <c r="R41" s="17">
+        <f t="shared" si="13"/>
+        <v>58965.661657067656</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="17">
+        <f t="shared" si="9"/>
+        <v>58965.661657067656</v>
+      </c>
+      <c r="O42" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P42" s="18">
+        <f t="shared" si="11"/>
+        <v>687.93271933245603</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="12"/>
+        <v>14485.934119800168</v>
+      </c>
+      <c r="R42" s="17">
+        <f t="shared" si="13"/>
+        <v>44479.727537267492</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M43">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="17">
+        <f t="shared" si="9"/>
+        <v>44479.727537267492</v>
+      </c>
+      <c r="O43" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P43" s="18">
+        <f t="shared" si="11"/>
+        <v>518.93015460145409</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="12"/>
+        <v>14654.936684531169</v>
+      </c>
+      <c r="R43" s="17">
+        <f t="shared" si="13"/>
+        <v>29824.790852736325</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M44">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="17">
+        <f t="shared" si="9"/>
+        <v>29824.790852736325</v>
+      </c>
+      <c r="O44" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" si="11"/>
+        <v>347.95589328192381</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="12"/>
+        <v>14825.910945850699</v>
+      </c>
+      <c r="R44" s="17">
+        <f t="shared" si="13"/>
+        <v>14998.879906885626</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="17">
+        <f t="shared" si="9"/>
+        <v>14998.879906885626</v>
+      </c>
+      <c r="O45" s="17">
+        <f t="shared" si="10"/>
+        <v>15173.866839132623</v>
+      </c>
+      <c r="P45" s="18">
+        <f t="shared" si="11"/>
+        <v>174.98693224699898</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" si="12"/>
+        <v>14998.879906885624</v>
+      </c>
+      <c r="R45" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M46">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M47">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M48">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+    </row>
+    <row r="49" spans="13:18" x14ac:dyDescent="0.25">
       <c r="M49">
         <v>24</v>
       </c>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2127,7 +2529,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M20" xr:uid="{58C9453E-810E-46A2-9140-433AE25A9689}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M20 L25:L26" xr:uid="{58C9453E-810E-46A2-9140-433AE25A9689}">
       <formula1>$A$3:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I23" xr:uid="{59038AD0-06A5-45B2-A516-1150ACDC566C}">

--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB53E74-46FE-4E71-8C7E-607B6E87273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D69F4-A2D9-4358-8D57-A8BA9BC0CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Manangement System" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Loan Interest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>MemberID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Registration Date</t>
   </si>
   <si>
@@ -213,28 +211,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Eligible Loan Amount(3X TC)</t>
-  </si>
-  <si>
     <t>No of weeks</t>
   </si>
   <si>
     <t>DEFAULTERS TABLE</t>
-  </si>
-  <si>
-    <t>MEMBER ID</t>
-  </si>
-  <si>
-    <t>LOAN ID</t>
-  </si>
-  <si>
-    <t>OUTSTANDING AMT</t>
-  </si>
-  <si>
-    <t>PENALTY RATE</t>
-  </si>
-  <si>
-    <t>PANAL AMT</t>
   </si>
   <si>
     <t>No of mothns</t>
@@ -304,13 +284,53 @@
   <si>
     <t>Installment</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Total Loan Interest</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LOANS TAKEN</t>
+  </si>
+  <si>
+    <t>defaulter penalty</t>
+  </si>
+  <si>
+    <t>Eligible Loan Amount(1.5X TC)</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAN INTEREST </t>
+  </si>
+  <si>
+    <t>Default Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penalty </t>
+  </si>
+  <si>
+    <t>penalty rate</t>
+  </si>
+  <si>
+    <t>Outstanding Amount</t>
+  </si>
+  <si>
+    <t>LOAN AMORTISATION TABLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -335,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +371,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -402,21 +440,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -757,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,127 +857,127 @@
     <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="N1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="M1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9">
         <v>45292</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D22" ca="1" si="0">DATEDIF($C3,$B$24,"YM")</f>
+        <f ca="1">DATEDIF($C3,$B$28,"YM")</f>
         <v>6</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" ca="1" si="1">$D3*4</f>
+        <f t="shared" ref="E3:E22" ca="1" si="0">$D3*4</f>
         <v>24</v>
       </c>
       <c r="F3">
         <v>1523</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" ca="1" si="2">$E3*$F3</f>
+        <f t="shared" ref="G3:G22" ca="1" si="1">$E3*$F3</f>
         <v>36552</v>
       </c>
       <c r="H3">
-        <f ca="1">$G3*3</f>
-        <v>109656</v>
+        <f ca="1">$G3*1.5</f>
+        <v>54828</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
+      <c r="K3" s="8"/>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="10">
         <v>0.22</v>
@@ -910,62 +989,48 @@
       <c r="Q3">
         <v>24</v>
       </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9">
         <v>45292</v>
       </c>
       <c r="D4">
+        <f ca="1">DATEDIF($C4,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F4">
         <v>4370</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>104880</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H22" ca="1" si="3">$G4*3</f>
-        <v>314640</v>
+        <f t="shared" ref="H4:H22" ca="1" si="2">$G4*1.5</f>
+        <v>157320</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>314640</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="K4" s="8"/>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="10">
         <v>0.21</v>
@@ -977,56 +1042,49 @@
       <c r="Q4">
         <v>15</v>
       </c>
-      <c r="T4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0.2</v>
-      </c>
+      <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9">
         <v>45292</v>
       </c>
       <c r="D5">
+        <f ca="1">DATEDIF($C5,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F5">
         <v>4880</v>
       </c>
       <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>117120</v>
+      </c>
+      <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>117120</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="3"/>
-        <v>351360</v>
+        <v>175680</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
+      <c r="K5" s="8"/>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="10">
         <v>0.23</v>
@@ -1038,56 +1096,49 @@
       <c r="Q5">
         <v>12</v>
       </c>
-      <c r="T5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0.2</v>
-      </c>
+      <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9">
         <v>45292</v>
       </c>
       <c r="D6">
+        <f ca="1">DATEDIF($C6,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F6">
         <v>3656</v>
       </c>
       <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>87744</v>
+      </c>
+      <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>87744</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="3"/>
-        <v>263232</v>
+        <v>131616</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
+      <c r="K6" s="8"/>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="10">
         <v>0.14000000000000001</v>
@@ -1102,127 +1153,130 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9">
         <v>45292</v>
       </c>
       <c r="D7">
+        <f ca="1">DATEDIF($C7,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F7">
         <v>2818</v>
       </c>
       <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>67632</v>
+      </c>
+      <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>67632</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="3"/>
-        <v>202896</v>
+        <v>101448</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
+      <c r="K7" s="8"/>
       <c r="M7" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9">
         <v>45292</v>
       </c>
       <c r="D8">
+        <f ca="1">DATEDIF($C8,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F8">
         <v>2868</v>
       </c>
       <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>68832</v>
+      </c>
+      <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>68832</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="3"/>
-        <v>206496</v>
+        <v>103248</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
+      <c r="K8" s="8"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9">
         <v>45292</v>
       </c>
       <c r="D9">
+        <f ca="1">DATEDIF($C9,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F9">
         <v>3623</v>
       </c>
       <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>86952</v>
+      </c>
+      <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>86952</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="3"/>
-        <v>260856</v>
+        <v>130428</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
+      <c r="K9" s="8"/>
       <c r="V9" s="1"/>
       <c r="W9" s="3"/>
       <c r="X9" s="4"/>
@@ -1231,39 +1285,49 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>45292</v>
       </c>
       <c r="D10">
+        <f ca="1">DATEDIF($C10,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F10">
         <v>2562</v>
       </c>
       <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>61488</v>
+      </c>
+      <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>61488</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="3"/>
-        <v>184464</v>
+        <v>92232</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="14">
-        <v>17000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J10" s="30">
+        <v>90000</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="M10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
       <c r="V10" s="1"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -1272,39 +1336,40 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9">
         <v>45292</v>
       </c>
       <c r="D11">
+        <f ca="1">DATEDIF($C11,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F11">
         <v>1457</v>
       </c>
       <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>34968</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>34968</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="3"/>
-        <v>104904</v>
+        <v>52452</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
+      <c r="K11" s="8"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
@@ -1312,110 +1377,112 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <v>45292</v>
       </c>
       <c r="D12">
+        <f ca="1">DATEDIF($C12,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F12">
         <v>1555</v>
       </c>
       <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>37320</v>
+      </c>
+      <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>37320</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="3"/>
-        <v>111960</v>
+        <v>55980</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
+      <c r="K12" s="8"/>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9">
         <v>45292</v>
       </c>
       <c r="D13">
+        <f ca="1">DATEDIF($C13,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F13">
         <v>1625</v>
       </c>
       <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>39000</v>
+      </c>
+      <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>39000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="3"/>
-        <v>117000</v>
+        <v>58500</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="13">
-        <v>100000</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J13" s="31">
+        <v>55000</v>
+      </c>
+      <c r="K13" s="8"/>
       <c r="M13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N20" si="4">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" ref="N13:N19" si="3">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
         <v>L02</v>
       </c>
       <c r="O13">
         <f>VLOOKUP($M13,$A$3:$J$24,10,FALSE)</f>
-        <v>314640</v>
+        <v>15000</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="11">
         <f>VLOOKUP($P13,$M$2:$Q$7,4,FALSE)</f>
@@ -1425,1121 +1492,1273 @@
         <f>VLOOKUP($P13,$M$2:$Q$7,5,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="14">
         <f>-PMT($Q13,$R13,$O13)</f>
-        <v>24031.381096417233</v>
+        <v>1145.6608074188232</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9">
         <v>45292</v>
       </c>
       <c r="D14">
+        <f ca="1">DATEDIF($C14,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F14">
         <v>2490</v>
       </c>
       <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>59760</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>59760</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="3"/>
-        <v>179280</v>
+        <v>89640</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
+      <c r="K14" s="8"/>
       <c r="M14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>L01</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O20" si="5">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
-        <v>17000</v>
+        <f t="shared" ref="O14:O19" si="4">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
+        <v>90000</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" ref="Q14:Q20" si="6">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
+        <f t="shared" ref="Q14:Q19" si="5">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
         <v>1.8333333333333333E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R20" si="7">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
+        <f t="shared" ref="R14:R19" si="6">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="S14" s="17">
-        <f t="shared" ref="S14:S20" si="8">-PMT($Q14,$R14,$O14)</f>
-        <v>881.92862901150772</v>
+      <c r="S14" s="14">
+        <f t="shared" ref="S14:S19" si="7">-PMT($Q14,$R14,$O14)</f>
+        <v>4669.033918296218</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="9">
         <v>45292</v>
       </c>
       <c r="D15">
+        <f ca="1">DATEDIF($C15,$B$28,"YM")</f>
+        <v>6</v>
+      </c>
+      <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F15">
         <v>3080</v>
       </c>
       <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>73920</v>
+      </c>
+      <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>73920</v>
-      </c>
-      <c r="H15">
-        <f ca="1">$G15*3</f>
-        <v>221760</v>
+        <v>110880</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="13">
-        <v>22000</v>
-      </c>
+      <c r="J15" s="31">
+        <v>100000</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>L04</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="4"/>
-        <v>L04</v>
-      </c>
-      <c r="O15">
+        <v>55000</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="11">
         <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="11">
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="6"/>
-        <v>1.1666666666666667E-2</v>
-      </c>
-      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="S15" s="17">
-        <f t="shared" si="8"/>
-        <v>5634.9772872595904</v>
+        <v>3099.2375079927742</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9">
         <v>45323</v>
       </c>
       <c r="D16">
+        <f ca="1">DATEDIF($C16,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F16">
         <v>714</v>
       </c>
       <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>14280</v>
+      </c>
+      <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>14280</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="3"/>
-        <v>42840</v>
+        <v>21420</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
+      <c r="K16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>L04</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="4"/>
-        <v>L03</v>
-      </c>
-      <c r="O16">
+        <v>100000</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="11">
         <f t="shared" si="5"/>
-        <v>22000</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="11">
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="6"/>
-        <v>1.9166666666666669E-2</v>
-      </c>
-      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="S16" s="17">
-        <f t="shared" si="8"/>
-        <v>2069.6790693834346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9407.6321335610664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="9">
         <v>45323</v>
       </c>
       <c r="D17">
+        <f ca="1">DATEDIF($C17,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F17">
         <v>1552</v>
       </c>
       <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>31040</v>
+      </c>
+      <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>31040</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="3"/>
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
+      <c r="K17" s="8"/>
       <c r="M17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>L04</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="5"/>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="4"/>
-        <v>L04</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="5"/>
-        <v>269280</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="6"/>
-        <v>1.1666666666666667E-2</v>
-      </c>
-      <c r="R17">
+      <c r="S17" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="S17" s="17">
-        <f t="shared" si="8"/>
-        <v>15173.866839132623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5634.9772872595904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9">
         <v>45323</v>
       </c>
       <c r="D18">
+        <f ca="1">DATEDIF($C18,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F18">
         <v>4488</v>
       </c>
       <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>89760</v>
+      </c>
+      <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>89760</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="3"/>
-        <v>269280</v>
+        <v>134640</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1">
-        <v>269280</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="K18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>L03</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="4"/>
-        <v>L03</v>
-      </c>
-      <c r="O18">
+        <v>84000</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="11">
         <f t="shared" si="5"/>
-        <v>168480</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="11">
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="6"/>
-        <v>1.9166666666666669E-2</v>
-      </c>
-      <c r="R18">
+        <v>12</v>
+      </c>
+      <c r="S18" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="S18" s="17">
-        <f t="shared" si="8"/>
-        <v>15849.978618623683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7902.410992191295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="9">
         <v>45323</v>
       </c>
       <c r="D19">
+        <f ca="1">DATEDIF($C19,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F19">
         <v>2808</v>
       </c>
       <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>56160</v>
+      </c>
+      <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>56160</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="3"/>
-        <v>168480</v>
+        <v>84240</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1">
-        <v>168480</v>
-      </c>
+        <v>84000</v>
+      </c>
+      <c r="K19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>L03</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="4"/>
-        <v>L03</v>
-      </c>
-      <c r="O19">
+        <v>100000</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="11">
         <f t="shared" si="5"/>
-        <v>190140</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="11">
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="6"/>
-        <v>1.9166666666666669E-2</v>
-      </c>
-      <c r="R19">
+        <v>12</v>
+      </c>
+      <c r="S19" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="S19" s="17">
-        <f t="shared" si="8"/>
-        <v>17887.671738753012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9407.6321335610664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9">
         <v>45323</v>
       </c>
       <c r="D20">
+        <f ca="1">DATEDIF($C20,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F20">
         <v>1988</v>
       </c>
       <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>39760</v>
+      </c>
+      <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>39760</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="3"/>
-        <v>119280</v>
+        <v>59640</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
+      <c r="K20" s="8"/>
       <c r="M20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="9">
         <v>45323</v>
       </c>
       <c r="D21">
+        <f ca="1">DATEDIF($C21,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F21">
         <v>4770</v>
       </c>
       <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>95400</v>
+      </c>
+      <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>95400</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="3"/>
-        <v>286200</v>
+        <v>143100</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9">
         <v>45323</v>
       </c>
       <c r="D22">
+        <f ca="1">DATEDIF($C22,$B$28,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="F22">
         <v>3169</v>
       </c>
       <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>63380</v>
+      </c>
+      <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>63380</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="3"/>
-        <v>190140</v>
+        <v>95070</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="1">
-        <v>190140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>100000</v>
+      </c>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18">
+        <f>SUBTOTAL(9,F3:F22)</f>
+        <v>55996</v>
+      </c>
+      <c r="G23" s="18">
+        <f ca="1">SUBTOTAL(9,G3:G22)</f>
+        <v>1265948</v>
+      </c>
+      <c r="H23" s="18">
+        <f ca="1">SUBTOTAL(9,H3:H22)</f>
+        <v>1898922</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18">
+        <f>SUBTOTAL(9,J3:J22)</f>
+        <v>544000</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="M25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23">
-        <v>2500</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="Q25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="M26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(M26,A3:J22,10,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="P26" s="14">
+        <f>VLOOKUP($M26,$M$13:$S$19,7,FALSE)</f>
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q26" s="15">
+        <f>VLOOKUP($M26,$M$13:$S$19,5,FALSE)*O26</f>
+        <v>1916.666666666667</v>
+      </c>
+      <c r="R26" s="15">
+        <f>P26-Q26</f>
+        <v>7490.9654668943995</v>
+      </c>
+      <c r="S26" s="14">
+        <f>O26-R26</f>
+        <v>92509.034533105601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>3500</v>
+      </c>
+      <c r="C27">
+        <f>B27*20</f>
+        <v>70000</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" s="14">
+        <f>$S26</f>
+        <v>92509.034533105601</v>
+      </c>
+      <c r="P27" s="14">
+        <f>$P$26</f>
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q27" s="15">
+        <f>VLOOKUP($M$26,$M$13:$S$19,5,FALSE)*$O27</f>
+        <v>1773.089828551191</v>
+      </c>
+      <c r="R27" s="14">
+        <f>$P$27-$Q27</f>
+        <v>7634.5423050098752</v>
+      </c>
+      <c r="S27" s="14">
+        <f>$O27-$R27</f>
+        <v>84874.492228095725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9">
         <f ca="1">TODAY()</f>
         <v>45504</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f>VLOOKUP(L26,A3:J22,10,FALSE)</f>
-        <v>269280</v>
-      </c>
-      <c r="O26" s="17">
-        <f>VLOOKUP($L26,$M$13:$S$19,7,FALSE)</f>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P26" s="18">
-        <f>VLOOKUP($L26,$M$13:$S$19,5,FALSE)*N26</f>
-        <v>3141.6000000000004</v>
-      </c>
-      <c r="Q26" s="18">
-        <f>O26-P26</f>
-        <v>12032.266839132622</v>
-      </c>
-      <c r="R26" s="17">
-        <f>N26-Q26</f>
-        <v>257247.73316086738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27" s="17">
-        <f>$R26</f>
-        <v>257247.73316086738</v>
-      </c>
-      <c r="O27" s="17">
-        <f>$O$26</f>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P27" s="18">
-        <f>VLOOKUP($L$26,$M$13:$S$19,5,FALSE)*$N27</f>
-        <v>3001.2235535434529</v>
-      </c>
-      <c r="Q27" s="17">
-        <f>$O$27-$P27</f>
-        <v>12172.643285589169</v>
-      </c>
-      <c r="R27" s="17">
-        <f>$N27-$Q27</f>
-        <v>245075.08987527821</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M28">
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="N28" s="17">
-        <f t="shared" ref="N28:N45" si="9">$R27</f>
-        <v>245075.08987527821</v>
-      </c>
-      <c r="O28" s="17">
-        <f t="shared" ref="O28:O45" si="10">$O$26</f>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" ref="P28:P45" si="11">VLOOKUP($L$26,$M$13:$S$19,5,FALSE)*$N28</f>
-        <v>2859.2093818782459</v>
-      </c>
-      <c r="Q28" s="17">
-        <f t="shared" ref="Q28:Q45" si="12">$O$27-$P28</f>
-        <v>12314.657457254376</v>
-      </c>
-      <c r="R28" s="17">
-        <f t="shared" ref="R28:R45" si="13">$N28-$Q28</f>
-        <v>232760.43241802382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M29">
+      <c r="O28" s="14">
+        <f t="shared" ref="O28:O40" si="8">$S27</f>
+        <v>84874.492228095725</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" ref="P28:P40" si="9">$P$26</f>
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" ref="Q28:Q40" si="10">VLOOKUP($M$26,$M$13:$S$19,5,FALSE)*$O28</f>
+        <v>1626.7611010385015</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" ref="R28:R40" si="11">$P$27-$Q28</f>
+        <v>7780.8710325225647</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" ref="S28:S40" si="12">$O28-$R28</f>
+        <v>77093.621195573156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N29">
         <v>4</v>
       </c>
-      <c r="N29" s="17">
+      <c r="O29" s="14">
+        <f t="shared" si="8"/>
+        <v>77093.621195573156</v>
+      </c>
+      <c r="P29" s="14">
         <f t="shared" si="9"/>
-        <v>232760.43241802382</v>
-      </c>
-      <c r="O29" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q29" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P29" s="18">
+        <v>1477.627739581819</v>
+      </c>
+      <c r="R29" s="14">
         <f t="shared" si="11"/>
-        <v>2715.5383782102781</v>
-      </c>
-      <c r="Q29" s="17">
+        <v>7930.0043939792477</v>
+      </c>
+      <c r="S29" s="14">
         <f t="shared" si="12"/>
-        <v>12458.328460922345</v>
-      </c>
-      <c r="R29" s="17">
-        <f t="shared" si="13"/>
-        <v>220302.10395710147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M30">
+        <v>69163.616801593904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N30">
         <v>5</v>
       </c>
-      <c r="N30" s="17">
+      <c r="O30" s="14">
+        <f t="shared" si="8"/>
+        <v>69163.616801593904</v>
+      </c>
+      <c r="P30" s="14">
         <f t="shared" si="9"/>
-        <v>220302.10395710147</v>
-      </c>
-      <c r="O30" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q30" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P30" s="18">
+        <v>1325.6359886972166</v>
+      </c>
+      <c r="R30" s="14">
         <f t="shared" si="11"/>
-        <v>2570.1912128328504</v>
-      </c>
-      <c r="Q30" s="17">
+        <v>8081.9961448638496</v>
+      </c>
+      <c r="S30" s="14">
         <f t="shared" si="12"/>
-        <v>12603.675626299773</v>
-      </c>
-      <c r="R30" s="17">
-        <f t="shared" si="13"/>
-        <v>207698.42833080169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M31">
+        <v>61081.620656730054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N31">
         <v>6</v>
       </c>
-      <c r="N31" s="17">
+      <c r="O31" s="14">
+        <f t="shared" si="8"/>
+        <v>61081.620656730054</v>
+      </c>
+      <c r="P31" s="14">
         <f t="shared" si="9"/>
-        <v>207698.42833080169</v>
-      </c>
-      <c r="O31" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q31" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P31" s="18">
+        <v>1170.7310625873261</v>
+      </c>
+      <c r="R31" s="14">
         <f t="shared" si="11"/>
-        <v>2423.1483305260199</v>
-      </c>
-      <c r="Q31" s="17">
+        <v>8236.9010709737413</v>
+      </c>
+      <c r="S31" s="14">
         <f t="shared" si="12"/>
-        <v>12750.718508606602</v>
-      </c>
-      <c r="R31" s="17">
-        <f t="shared" si="13"/>
-        <v>194947.70982219509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M32">
+        <v>52844.719585756313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N32">
         <v>7</v>
       </c>
-      <c r="N32" s="17">
+      <c r="O32" s="14">
+        <f t="shared" si="8"/>
+        <v>52844.719585756313</v>
+      </c>
+      <c r="P32" s="14">
         <f t="shared" si="9"/>
-        <v>194947.70982219509</v>
-      </c>
-      <c r="O32" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q32" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P32" s="18">
+        <v>1012.8571253936627</v>
+      </c>
+      <c r="R32" s="14">
         <f t="shared" si="11"/>
-        <v>2274.3899479256092</v>
-      </c>
-      <c r="Q32" s="17">
+        <v>8394.7750081674039</v>
+      </c>
+      <c r="S32" s="14">
         <f t="shared" si="12"/>
-        <v>12899.476891207014</v>
-      </c>
-      <c r="R32" s="17">
-        <f t="shared" si="13"/>
-        <v>182048.23293098807</v>
-      </c>
-    </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+        <v>44449.944577588911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="M33">
+      <c r="N33">
         <v>8</v>
       </c>
-      <c r="N33" s="17">
+      <c r="O33" s="14">
+        <f t="shared" si="8"/>
+        <v>44449.944577588911</v>
+      </c>
+      <c r="P33" s="14">
         <f t="shared" si="9"/>
-        <v>182048.23293098807</v>
-      </c>
-      <c r="O33" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q33" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P33" s="18">
+        <v>851.95727107045423</v>
+      </c>
+      <c r="R33" s="14">
         <f t="shared" si="11"/>
-        <v>2123.8960508615278</v>
-      </c>
-      <c r="Q33" s="17">
+        <v>8555.6748624906122</v>
+      </c>
+      <c r="S33" s="14">
         <f t="shared" si="12"/>
-        <v>13049.970788271095</v>
-      </c>
-      <c r="R33" s="17">
-        <f t="shared" si="13"/>
-        <v>168998.26214271697</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="M34">
+        <v>35894.2697150983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="N34">
         <v>9</v>
       </c>
-      <c r="N34" s="17">
+      <c r="O34" s="14">
+        <f t="shared" si="8"/>
+        <v>35894.2697150983</v>
+      </c>
+      <c r="P34" s="14">
         <f t="shared" si="9"/>
-        <v>168998.26214271697</v>
-      </c>
-      <c r="O34" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q34" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P34" s="18">
+        <v>687.97350287271752</v>
+      </c>
+      <c r="R34" s="14">
         <f t="shared" si="11"/>
-        <v>1971.6463916650314</v>
-      </c>
-      <c r="Q34" s="17">
+        <v>8719.6586306883491</v>
+      </c>
+      <c r="S34" s="14">
         <f t="shared" si="12"/>
-        <v>13202.220447467591</v>
-      </c>
-      <c r="R34" s="17">
-        <f t="shared" si="13"/>
-        <v>155796.04169524938</v>
-      </c>
-    </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M35">
+        <v>27174.611084409953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="N35">
         <v>10</v>
       </c>
-      <c r="N35" s="17">
+      <c r="O35" s="14">
+        <f t="shared" si="8"/>
+        <v>27174.611084409953</v>
+      </c>
+      <c r="P35" s="14">
         <f t="shared" si="9"/>
-        <v>155796.04169524938</v>
-      </c>
-      <c r="O35" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q35" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P35" s="18">
+        <v>520.8467124511908</v>
+      </c>
+      <c r="R35" s="14">
         <f t="shared" si="11"/>
-        <v>1817.6204864445763</v>
-      </c>
-      <c r="Q35" s="17">
+        <v>8886.7854211098747</v>
+      </c>
+      <c r="S35" s="14">
         <f t="shared" si="12"/>
-        <v>13356.246352688046</v>
-      </c>
-      <c r="R35" s="17">
-        <f t="shared" si="13"/>
-        <v>142439.79534256132</v>
-      </c>
-    </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M36">
+        <v>18287.825663300078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="N36">
         <v>11</v>
       </c>
-      <c r="N36" s="17">
+      <c r="O36" s="14">
+        <f t="shared" si="8"/>
+        <v>18287.825663300078</v>
+      </c>
+      <c r="P36" s="14">
         <f t="shared" si="9"/>
-        <v>142439.79534256132</v>
-      </c>
-      <c r="O36" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q36" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P36" s="18">
+        <v>350.51665854658489</v>
+      </c>
+      <c r="R36" s="14">
         <f t="shared" si="11"/>
-        <v>1661.7976123298822</v>
-      </c>
-      <c r="Q36" s="17">
+        <v>9057.1154750144815</v>
+      </c>
+      <c r="S36" s="14">
         <f t="shared" si="12"/>
-        <v>13512.069226802741</v>
-      </c>
-      <c r="R36" s="17">
-        <f t="shared" si="13"/>
-        <v>128927.72611575859</v>
-      </c>
-    </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M37">
+        <v>9230.7101882855968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="N37">
         <v>12</v>
       </c>
-      <c r="N37" s="17">
+      <c r="O37" s="14">
+        <f t="shared" si="8"/>
+        <v>9230.7101882855968</v>
+      </c>
+      <c r="P37" s="14">
         <f t="shared" si="9"/>
-        <v>128927.72611575859</v>
-      </c>
-      <c r="O37" s="17">
+        <v>9407.6321335610664</v>
+      </c>
+      <c r="Q37" s="15">
         <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P37" s="18">
+        <v>176.92194527547395</v>
+      </c>
+      <c r="R37" s="14">
         <f t="shared" si="11"/>
-        <v>1504.1568046838502</v>
-      </c>
-      <c r="Q37" s="17">
+        <v>9230.7101882855932</v>
+      </c>
+      <c r="S37" s="14">
         <f t="shared" si="12"/>
-        <v>13669.710034448774</v>
-      </c>
-      <c r="R37" s="17">
-        <f t="shared" si="13"/>
-        <v>115258.01608130982</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="N38">
         <v>13</v>
       </c>
-      <c r="N38" s="17">
-        <f t="shared" si="9"/>
-        <v>115258.01608130982</v>
-      </c>
-      <c r="O38" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P38" s="18">
-        <f t="shared" si="11"/>
-        <v>1344.676854281948</v>
-      </c>
-      <c r="Q38" s="17">
-        <f t="shared" si="12"/>
-        <v>13829.189984850675</v>
-      </c>
-      <c r="R38" s="17">
-        <f t="shared" si="13"/>
-        <v>101428.82609645915</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M39">
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="N39">
         <v>14</v>
       </c>
-      <c r="N39" s="17">
-        <f t="shared" si="9"/>
-        <v>101428.82609645915</v>
-      </c>
-      <c r="O39" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P39" s="18">
-        <f t="shared" si="11"/>
-        <v>1183.3363044586902</v>
-      </c>
-      <c r="Q39" s="17">
-        <f t="shared" si="12"/>
-        <v>13990.530534673933</v>
-      </c>
-      <c r="R39" s="17">
-        <f t="shared" si="13"/>
-        <v>87438.295561785213</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M40">
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="N40">
         <v>15</v>
       </c>
-      <c r="N40" s="17">
-        <f t="shared" si="9"/>
-        <v>87438.295561785213</v>
-      </c>
-      <c r="O40" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P40" s="18">
-        <f t="shared" si="11"/>
-        <v>1020.1134482208275</v>
-      </c>
-      <c r="Q40" s="17">
-        <f t="shared" si="12"/>
-        <v>14153.753390911796</v>
-      </c>
-      <c r="R40" s="17">
-        <f t="shared" si="13"/>
-        <v>73284.542170873421</v>
-      </c>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M41">
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="N41">
         <v>16</v>
       </c>
-      <c r="N41" s="17">
-        <f t="shared" si="9"/>
-        <v>73284.542170873421</v>
-      </c>
-      <c r="O41" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P41" s="18">
-        <f t="shared" si="11"/>
-        <v>854.98632532685667</v>
-      </c>
-      <c r="Q41" s="17">
-        <f t="shared" si="12"/>
-        <v>14318.880513805767</v>
-      </c>
-      <c r="R41" s="17">
-        <f t="shared" si="13"/>
-        <v>58965.661657067656</v>
-      </c>
-    </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M42">
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="N42">
         <v>17</v>
       </c>
-      <c r="N42" s="17">
-        <f t="shared" si="9"/>
-        <v>58965.661657067656</v>
-      </c>
-      <c r="O42" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P42" s="18">
-        <f t="shared" si="11"/>
-        <v>687.93271933245603</v>
-      </c>
-      <c r="Q42" s="17">
-        <f t="shared" si="12"/>
-        <v>14485.934119800168</v>
-      </c>
-      <c r="R42" s="17">
-        <f t="shared" si="13"/>
-        <v>44479.727537267492</v>
-      </c>
-    </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M43">
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="N43">
         <v>18</v>
       </c>
-      <c r="N43" s="17">
-        <f t="shared" si="9"/>
-        <v>44479.727537267492</v>
-      </c>
-      <c r="O43" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P43" s="18">
-        <f t="shared" si="11"/>
-        <v>518.93015460145409</v>
-      </c>
-      <c r="Q43" s="17">
-        <f t="shared" si="12"/>
-        <v>14654.936684531169</v>
-      </c>
-      <c r="R43" s="17">
-        <f t="shared" si="13"/>
-        <v>29824.790852736325</v>
-      </c>
-    </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M44">
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N44">
         <v>19</v>
       </c>
-      <c r="N44" s="17">
-        <f t="shared" si="9"/>
-        <v>29824.790852736325</v>
-      </c>
-      <c r="O44" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P44" s="18">
-        <f t="shared" si="11"/>
-        <v>347.95589328192381</v>
-      </c>
-      <c r="Q44" s="17">
-        <f t="shared" si="12"/>
-        <v>14825.910945850699</v>
-      </c>
-      <c r="R44" s="17">
-        <f t="shared" si="13"/>
-        <v>14998.879906885626</v>
-      </c>
-    </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M45">
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N45">
         <v>20</v>
       </c>
-      <c r="N45" s="17">
-        <f t="shared" si="9"/>
-        <v>14998.879906885626</v>
-      </c>
-      <c r="O45" s="17">
-        <f t="shared" si="10"/>
-        <v>15173.866839132623</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" si="11"/>
-        <v>174.98693224699898</v>
-      </c>
-      <c r="Q45" s="17">
-        <f t="shared" si="12"/>
-        <v>14998.879906885624</v>
-      </c>
-      <c r="R45" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M46">
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N46">
         <v>21</v>
       </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-    </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M47">
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N47">
         <v>22</v>
       </c>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-    </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="M48">
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N48">
         <v>23</v>
       </c>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-    </row>
-    <row r="49" spans="13:18" x14ac:dyDescent="0.25">
-      <c r="M49">
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+    </row>
+    <row r="49" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="N49">
         <v>24</v>
       </c>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M50" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="18">
+        <f>SUBTOTAL(9,Q26:Q49)</f>
+        <v>12891.585602732805</v>
+      </c>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:R1"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="F34:J34"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M10:S10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="V9:V10 V12">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O2 Q2">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K22">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="L">
+      <formula>NOT(ISERROR(SEARCH("L",K3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I22">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V10 V12">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2 Q2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M20 L25:L26" xr:uid="{58C9453E-810E-46A2-9140-433AE25A9689}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M20 M25:M26" xr:uid="{58C9453E-810E-46A2-9140-433AE25A9689}">
       <formula1>$A$3:$A$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I23" xr:uid="{59038AD0-06A5-45B2-A516-1150ACDC566C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23" xr:uid="{59038AD0-06A5-45B2-A516-1150ACDC566C}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:P20" xr:uid="{CCE4B299-799C-49F8-9BF3-74844DA3BD82}">
       <formula1>$M$3:$M$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I22 A33:A43" xr:uid="{9781CD54-274E-46E2-9B20-3966F951C1AB}">
+      <formula1>$N$3:$N$7</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2948F1-41ED-4845-B835-3AA9AD73C7B6}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="G1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>30000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <f>I4*J4</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20">
+        <v>45830.716446258499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4166.2870962761899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="20">
+        <v>12699.545745191803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2836.1488326012163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20">
+        <v>34197.336782652485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20">
+        <v>21719.743423484244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="20">
+        <v>24512.060865036157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22">
+        <f>SUM(C5:C11)</f>
+        <v>145961.83919150059</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D69F4-A2D9-4358-8D57-A8BA9BC0CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558DCE2-5DA2-4B1B-A291-6DCEC7E79A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Manangement System" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>MemberID</t>
   </si>
@@ -288,27 +288,21 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Total Loan Interest</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>LOAN AMOUTIZATION TABLE</t>
+  </si>
+  <si>
     <t>LOANS TAKEN</t>
   </si>
   <si>
-    <t>defaulter penalty</t>
-  </si>
-  <si>
     <t>Eligible Loan Amount(1.5X TC)</t>
   </si>
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t xml:space="preserve">LOAN INTEREST </t>
-  </si>
-  <si>
     <t>Default Month</t>
   </si>
   <si>
@@ -321,16 +315,67 @@
     <t>Outstanding Amount</t>
   </si>
   <si>
-    <t>LOAN AMORTISATION TABLE</t>
+    <t>Date to use</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MONTHLY INTERESTS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                            </t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TOTAL REVENUE</t>
+  </si>
+  <si>
+    <t>Registration fees</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Dividend Rate</t>
+  </si>
+  <si>
+    <t>Dividend Amount</t>
+  </si>
+  <si>
+    <t>DIVIDENDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -355,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +437,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -420,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,23 +514,28 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -470,17 +544,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="E19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,25 +952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -891,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -909,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>56</v>
@@ -932,10 +1019,10 @@
       <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -948,22 +1035,22 @@
         <v>45292</v>
       </c>
       <c r="D3">
-        <f ca="1">DATEDIF($C3,$B$28,"YM")</f>
+        <f>DATEDIF($C3,$B$29,"YM")</f>
         <v>6</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" ca="1" si="0">$D3*4</f>
+        <f t="shared" ref="E3:E22" si="0">$D3*4</f>
         <v>24</v>
       </c>
       <c r="F3">
         <v>1523</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" ca="1" si="1">$E3*$F3</f>
+        <f t="shared" ref="G3:G22" si="1">$E3*$F3</f>
         <v>36552</v>
       </c>
       <c r="H3">
-        <f ca="1">$G3*1.5</f>
+        <f>$G3*1.5</f>
         <v>54828</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -1001,22 +1088,22 @@
         <v>45292</v>
       </c>
       <c r="D4">
-        <f ca="1">DATEDIF($C4,$B$28,"YM")</f>
+        <f t="shared" ref="D4:D22" si="2">DATEDIF($C4,$B$29,"YM")</f>
         <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F4">
         <v>4370</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>104880</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H22" ca="1" si="2">$G4*1.5</f>
+        <f t="shared" ref="H4:H22" si="3">$G4*1.5</f>
         <v>157320</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1055,22 +1142,22 @@
         <v>45292</v>
       </c>
       <c r="D5">
-        <f ca="1">DATEDIF($C5,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F5">
         <v>4880</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>117120</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>175680</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1109,22 +1196,22 @@
         <v>45292</v>
       </c>
       <c r="D6">
-        <f ca="1">DATEDIF($C6,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F6">
         <v>3656</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>87744</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>131616</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1162,22 +1249,22 @@
         <v>45292</v>
       </c>
       <c r="D7">
-        <f ca="1">DATEDIF($C7,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F7">
         <v>2818</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>67632</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>101448</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1214,22 +1301,22 @@
         <v>45292</v>
       </c>
       <c r="D8">
-        <f ca="1">DATEDIF($C8,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F8">
         <v>2868</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>68832</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>103248</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1252,22 +1339,22 @@
         <v>45292</v>
       </c>
       <c r="D9">
-        <f ca="1">DATEDIF($C9,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F9">
         <v>3623</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>86952</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>130428</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1294,40 +1381,40 @@
         <v>45292</v>
       </c>
       <c r="D10">
-        <f ca="1">DATEDIF($C10,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F10">
         <v>2562</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>61488</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>92232</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="21">
         <v>90000</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
       <c r="V10" s="1"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -1345,22 +1432,22 @@
         <v>45292</v>
       </c>
       <c r="D11">
-        <f ca="1">DATEDIF($C11,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F11">
         <v>1457</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>34968</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>52452</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1386,22 +1473,22 @@
         <v>45292</v>
       </c>
       <c r="D12">
-        <f ca="1">DATEDIF($C12,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F12">
         <v>1555</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>37320</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>55980</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -1445,28 +1532,28 @@
         <v>45292</v>
       </c>
       <c r="D13">
-        <f ca="1">DATEDIF($C13,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F13">
         <v>1625</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>39000</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>58500</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="22">
         <v>55000</v>
       </c>
       <c r="K13" s="8"/>
@@ -1474,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N19" si="3">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
+        <f t="shared" ref="N13:N20" si="4">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
         <v>L02</v>
       </c>
       <c r="O13">
@@ -1508,22 +1595,22 @@
         <v>45292</v>
       </c>
       <c r="D14">
-        <f ca="1">DATEDIF($C14,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F14">
         <v>2490</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>59760</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>89640</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1537,26 +1624,26 @@
         <v>11</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L01</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O19" si="4">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
+        <f t="shared" ref="O14:O20" si="5">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
         <v>90000</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" ref="Q14:Q19" si="5">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
+        <f t="shared" ref="Q14:Q20" si="6">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
         <v>1.8333333333333333E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R19" si="6">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
+        <f t="shared" ref="R14:R20" si="7">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
         <v>24</v>
       </c>
       <c r="S14" s="14">
-        <f t="shared" ref="S14:S19" si="7">-PMT($Q14,$R14,$O14)</f>
+        <f t="shared" ref="S14:S20" si="8">-PMT($Q14,$R14,$O14)</f>
         <v>4669.033918296218</v>
       </c>
     </row>
@@ -1571,28 +1658,28 @@
         <v>45292</v>
       </c>
       <c r="D15">
-        <f ca="1">DATEDIF($C15,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F15">
         <v>3080</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>73920</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>110880</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="22">
         <v>100000</v>
       </c>
       <c r="K15" s="8"/>
@@ -1600,26 +1687,26 @@
         <v>14</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L04</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55000</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1666666666666667E-2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="S15" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3099.2375079927742</v>
       </c>
     </row>
@@ -1634,22 +1721,22 @@
         <v>45323</v>
       </c>
       <c r="D16">
-        <f ca="1">DATEDIF($C16,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F16">
         <v>714</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>14280</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>21420</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -1663,26 +1750,26 @@
         <v>16</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L04</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9166666666666669E-2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="S16" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9407.6321335610664</v>
       </c>
     </row>
@@ -1697,22 +1784,22 @@
         <v>45323</v>
       </c>
       <c r="D17">
-        <f ca="1">DATEDIF($C17,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F17">
         <v>1552</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>31040</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>46560</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1726,26 +1813,26 @@
         <v>19</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L04</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1666666666666667E-2</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="S17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5634.9772872595904</v>
       </c>
     </row>
@@ -1760,22 +1847,22 @@
         <v>45323</v>
       </c>
       <c r="D18">
-        <f ca="1">DATEDIF($C18,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F18">
         <v>4488</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>89760</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>134640</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -1789,26 +1876,26 @@
         <v>20</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L03</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84000</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9166666666666669E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="S18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7902.410992191295</v>
       </c>
     </row>
@@ -1823,22 +1910,22 @@
         <v>45323</v>
       </c>
       <c r="D19">
-        <f ca="1">DATEDIF($C19,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F19">
         <v>2808</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>56160</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>84240</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1852,26 +1939,26 @@
         <v>23</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L03</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9166666666666669E-2</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="S19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9407.6321335610664</v>
       </c>
     </row>
@@ -1886,22 +1973,22 @@
         <v>45323</v>
       </c>
       <c r="D20">
-        <f ca="1">DATEDIF($C20,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F20">
         <v>1988</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>39760</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>59640</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1914,6 +2001,7 @@
       <c r="M20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="11"/>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1926,29 +2014,29 @@
         <v>45323</v>
       </c>
       <c r="D21">
-        <f ca="1">DATEDIF($C21,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F21">
         <v>4770</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>95400</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>143100</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="K21" s="8"/>
     </row>
@@ -1963,22 +2051,22 @@
         <v>45323</v>
       </c>
       <c r="D22">
-        <f ca="1">DATEDIF($C22,$B$28,"YM")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F22">
         <v>3169</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>63380</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="3"/>
         <v>95070</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -1990,47 +2078,47 @@
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18">
+      <c r="A23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16">
         <f>SUBTOTAL(9,F3:F22)</f>
         <v>55996</v>
       </c>
-      <c r="G23" s="18">
-        <f ca="1">SUBTOTAL(9,G3:G22)</f>
+      <c r="G23" s="16">
+        <f>SUBTOTAL(9,G3:G22)</f>
         <v>1265948</v>
       </c>
-      <c r="H23" s="18">
-        <f ca="1">SUBTOTAL(9,H3:H22)</f>
+      <c r="H23" s="16">
+        <f>SUBTOTAL(9,H3:H22)</f>
         <v>1898922</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18">
+      <c r="I23" s="16"/>
+      <c r="J23" s="16">
         <f>SUBTOTAL(9,J3:J22)</f>
-        <v>544000</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+        <v>684000</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
+      <c r="B24" s="18"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+      <c r="B25" s="18"/>
       <c r="M25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,37 +2140,35 @@
       <c r="S25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
+      <c r="B26" s="18"/>
       <c r="M26" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
         <f>VLOOKUP(M26,A3:J22,10,FALSE)</f>
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P26" s="14">
-        <f>VLOOKUP($M26,$M$13:$S$19,7,FALSE)</f>
-        <v>9407.6321335610664</v>
+        <f>VLOOKUP($M26,$M$13:$S$120,7,FALSE)</f>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q26" s="15">
-        <f>VLOOKUP($M26,$M$13:$S$19,5,FALSE)*O26</f>
-        <v>1916.666666666667</v>
+        <f>VLOOKUP($M26,$M$13:$S$20,5,FALSE)*O26</f>
+        <v>1650</v>
       </c>
       <c r="R26" s="15">
         <f>P26-Q26</f>
-        <v>7490.9654668943995</v>
+        <v>3019.033918296218</v>
       </c>
       <c r="S26" s="14">
         <f>O26-R26</f>
-        <v>92509.034533105601</v>
+        <v>86980.96608170378</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2101,23 +2187,23 @@
       </c>
       <c r="O27" s="14">
         <f>$S26</f>
-        <v>92509.034533105601</v>
+        <v>86980.96608170378</v>
       </c>
       <c r="P27" s="14">
         <f>$P$26</f>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q27" s="15">
-        <f>VLOOKUP($M$26,$M$13:$S$19,5,FALSE)*$O27</f>
-        <v>1773.089828551191</v>
+        <f>VLOOKUP($M$26,$M$13:$S$20,5,FALSE)*$O27</f>
+        <v>1594.651044831236</v>
       </c>
       <c r="R27" s="14">
         <f>$P$27-$Q27</f>
-        <v>7634.5423050098752</v>
+        <v>3074.3828734649819</v>
       </c>
       <c r="S27" s="14">
         <f>$O27-$R27</f>
-        <v>84874.492228095725</v>
+        <v>83906.583208238793</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2126,55 +2212,61 @@
       </c>
       <c r="B28" s="9">
         <f ca="1">TODAY()</f>
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="N28">
         <v>3</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" ref="O28:O40" si="8">$S27</f>
-        <v>84874.492228095725</v>
+        <f>$S27</f>
+        <v>83906.583208238793</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" ref="P28:P40" si="9">$P$26</f>
-        <v>9407.6321335610664</v>
+        <f t="shared" ref="P28:P49" si="9">$P$26</f>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" ref="Q28:Q40" si="10">VLOOKUP($M$26,$M$13:$S$19,5,FALSE)*$O28</f>
-        <v>1626.7611010385015</v>
+        <f t="shared" ref="Q28:Q49" si="10">VLOOKUP($M$26,$M$13:$S$20,5,FALSE)*$O28</f>
+        <v>1538.2873588177113</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R40" si="11">$P$27-$Q28</f>
-        <v>7780.8710325225647</v>
+        <f t="shared" ref="R28:R49" si="11">$P$27-$Q28</f>
+        <v>3130.7465594785067</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28:S40" si="12">$O28-$R28</f>
-        <v>77093.621195573156</v>
+        <f t="shared" ref="S28:S49" si="12">$O28-$R28</f>
+        <v>80775.836648760291</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="9">
+        <v>45504</v>
+      </c>
       <c r="N29">
         <v>4</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="8"/>
-        <v>77093.621195573156</v>
+        <f t="shared" ref="O28:O42" si="13">$S28</f>
+        <v>80775.836648760291</v>
       </c>
       <c r="P29" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="10"/>
-        <v>1477.627739581819</v>
+        <v>1480.8903385606054</v>
       </c>
       <c r="R29" s="14">
         <f t="shared" si="11"/>
-        <v>7930.0043939792477</v>
+        <v>3188.1435797356125</v>
       </c>
       <c r="S29" s="14">
         <f t="shared" si="12"/>
-        <v>69163.616801593904</v>
+        <v>77587.693069024681</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2182,24 +2274,24 @@
         <v>5</v>
       </c>
       <c r="O30" s="14">
-        <f t="shared" si="8"/>
-        <v>69163.616801593904</v>
+        <f t="shared" si="13"/>
+        <v>77587.693069024681</v>
       </c>
       <c r="P30" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q30" s="15">
         <f t="shared" si="10"/>
-        <v>1325.6359886972166</v>
+        <v>1422.4410395987859</v>
       </c>
       <c r="R30" s="14">
         <f t="shared" si="11"/>
-        <v>8081.9961448638496</v>
+        <v>3246.5928786974318</v>
       </c>
       <c r="S30" s="14">
         <f t="shared" si="12"/>
-        <v>61081.620656730054</v>
+        <v>74341.100190327255</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2207,24 +2299,24 @@
         <v>6</v>
       </c>
       <c r="O31" s="14">
-        <f t="shared" si="8"/>
-        <v>61081.620656730054</v>
+        <f t="shared" si="13"/>
+        <v>74341.100190327255</v>
       </c>
       <c r="P31" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="10"/>
-        <v>1170.7310625873261</v>
+        <v>1362.9201701559996</v>
       </c>
       <c r="R31" s="14">
         <f t="shared" si="11"/>
-        <v>8236.9010709737413</v>
+        <v>3306.1137481402184</v>
       </c>
       <c r="S31" s="14">
         <f t="shared" si="12"/>
-        <v>52844.719585756313</v>
+        <v>71034.986442187044</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2232,24 +2324,24 @@
         <v>7</v>
       </c>
       <c r="O32" s="14">
-        <f t="shared" si="8"/>
-        <v>52844.719585756313</v>
+        <f t="shared" si="13"/>
+        <v>71034.986442187044</v>
       </c>
       <c r="P32" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q32" s="15">
         <f t="shared" si="10"/>
-        <v>1012.8571253936627</v>
+        <v>1302.3080847734291</v>
       </c>
       <c r="R32" s="14">
         <f t="shared" si="11"/>
-        <v>8394.7750081674039</v>
+        <v>3366.7258335227889</v>
       </c>
       <c r="S32" s="14">
         <f t="shared" si="12"/>
-        <v>44449.944577588911</v>
+        <v>67668.260608664248</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2263,55 +2355,55 @@
         <v>8</v>
       </c>
       <c r="O33" s="14">
-        <f t="shared" si="8"/>
-        <v>44449.944577588911</v>
+        <f t="shared" si="13"/>
+        <v>67668.260608664248</v>
       </c>
       <c r="P33" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q33" s="15">
         <f t="shared" si="10"/>
-        <v>851.95727107045423</v>
+        <v>1240.5847778255113</v>
       </c>
       <c r="R33" s="14">
         <f t="shared" si="11"/>
-        <v>8555.6748624906122</v>
+        <v>3428.4491404707069</v>
       </c>
       <c r="S33" s="14">
         <f t="shared" si="12"/>
-        <v>35894.2697150983</v>
+        <v>64239.81146819354</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
       <c r="N34">
         <v>9</v>
       </c>
       <c r="O34" s="14">
-        <f t="shared" si="8"/>
-        <v>35894.2697150983</v>
+        <f t="shared" si="13"/>
+        <v>64239.81146819354</v>
       </c>
       <c r="P34" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q34" s="15">
         <f t="shared" si="10"/>
-        <v>687.97350287271752</v>
+        <v>1177.7298769168815</v>
       </c>
       <c r="R34" s="14">
         <f t="shared" si="11"/>
-        <v>8719.6586306883491</v>
+        <v>3491.3040413793365</v>
       </c>
       <c r="S34" s="14">
         <f t="shared" si="12"/>
-        <v>27174.611084409953</v>
+        <v>60748.507426814205</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -2320,24 +2412,24 @@
         <v>10</v>
       </c>
       <c r="O35" s="14">
-        <f t="shared" si="8"/>
-        <v>27174.611084409953</v>
+        <f t="shared" si="13"/>
+        <v>60748.507426814205</v>
       </c>
       <c r="P35" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q35" s="15">
         <f t="shared" si="10"/>
-        <v>520.8467124511908</v>
+        <v>1113.7226361582605</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" si="11"/>
-        <v>8886.7854211098747</v>
+        <v>3555.3112821379573</v>
       </c>
       <c r="S35" s="14">
         <f t="shared" si="12"/>
-        <v>18287.825663300078</v>
+        <v>57193.196144676251</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2346,24 +2438,24 @@
         <v>11</v>
       </c>
       <c r="O36" s="14">
-        <f t="shared" si="8"/>
-        <v>18287.825663300078</v>
+        <f t="shared" si="13"/>
+        <v>57193.196144676251</v>
       </c>
       <c r="P36" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q36" s="15">
         <f t="shared" si="10"/>
-        <v>350.51665854658489</v>
+        <v>1048.5419293190646</v>
       </c>
       <c r="R36" s="14">
         <f t="shared" si="11"/>
-        <v>9057.1154750144815</v>
+        <v>3620.4919889771536</v>
       </c>
       <c r="S36" s="14">
         <f t="shared" si="12"/>
-        <v>9230.7101882855968</v>
+        <v>53572.704155699095</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2372,24 +2464,24 @@
         <v>12</v>
       </c>
       <c r="O37" s="14">
-        <f t="shared" si="8"/>
-        <v>9230.7101882855968</v>
+        <f t="shared" si="13"/>
+        <v>53572.704155699095</v>
       </c>
       <c r="P37" s="14">
         <f t="shared" si="9"/>
-        <v>9407.6321335610664</v>
+        <v>4669.033918296218</v>
       </c>
       <c r="Q37" s="15">
         <f t="shared" si="10"/>
-        <v>176.92194527547395</v>
+        <v>982.16624285448347</v>
       </c>
       <c r="R37" s="14">
         <f t="shared" si="11"/>
-        <v>9230.7101882855932</v>
+        <v>3686.8676754417347</v>
       </c>
       <c r="S37" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>49885.836480257363</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -2397,86 +2489,206 @@
       <c r="N38">
         <v>13</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
+      <c r="O38" s="14">
+        <f t="shared" si="13"/>
+        <v>49885.836480257363</v>
+      </c>
+      <c r="P38" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q38" s="15">
+        <f t="shared" si="10"/>
+        <v>914.5736688047183</v>
+      </c>
+      <c r="R38" s="14">
+        <f t="shared" si="11"/>
+        <v>3754.4602494914998</v>
+      </c>
+      <c r="S38" s="14">
+        <f t="shared" si="12"/>
+        <v>46131.376230765862</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="N39">
         <v>14</v>
       </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
+      <c r="O39" s="14">
+        <f t="shared" si="13"/>
+        <v>46131.376230765862</v>
+      </c>
+      <c r="P39" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q39" s="15">
+        <f t="shared" si="10"/>
+        <v>845.74189756404076</v>
+      </c>
+      <c r="R39" s="14">
+        <f t="shared" si="11"/>
+        <v>3823.2920207321772</v>
+      </c>
+      <c r="S39" s="14">
+        <f t="shared" si="12"/>
+        <v>42308.084210033681</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="N40">
         <v>15</v>
       </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
+      <c r="O40" s="14">
+        <f t="shared" si="13"/>
+        <v>42308.084210033681</v>
+      </c>
+      <c r="P40" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q40" s="15">
+        <f t="shared" si="10"/>
+        <v>775.64821051728416</v>
+      </c>
+      <c r="R40" s="14">
+        <f t="shared" si="11"/>
+        <v>3893.3857077789339</v>
+      </c>
+      <c r="S40" s="14">
+        <f t="shared" si="12"/>
+        <v>38414.698502254745</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="N41">
         <v>16</v>
       </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
+      <c r="O41" s="14">
+        <f t="shared" si="13"/>
+        <v>38414.698502254745</v>
+      </c>
+      <c r="P41" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q41" s="15">
+        <f t="shared" si="10"/>
+        <v>704.269472541337</v>
+      </c>
+      <c r="R41" s="14">
+        <f t="shared" si="11"/>
+        <v>3964.7644457548809</v>
+      </c>
+      <c r="S41" s="14">
+        <f t="shared" si="12"/>
+        <v>34449.934056499864</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="N42">
         <v>17</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="O42" s="14">
+        <f t="shared" si="13"/>
+        <v>34449.934056499864</v>
+      </c>
+      <c r="P42" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q42" s="15">
+        <f t="shared" si="10"/>
+        <v>631.58212436916415</v>
+      </c>
+      <c r="R42" s="14">
+        <f t="shared" si="11"/>
+        <v>4037.4517939270536</v>
+      </c>
+      <c r="S42" s="14">
+        <f t="shared" si="12"/>
+        <v>30412.482262572812</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="N43">
         <v>18</v>
       </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+      <c r="O43" s="14">
+        <f>$S42</f>
+        <v>30412.482262572812</v>
+      </c>
+      <c r="P43" s="14">
+        <f>$P$26</f>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q43" s="15">
+        <f>VLOOKUP($M$26,$M$13:$S$20,5,FALSE)*$O43</f>
+        <v>557.56217481383487</v>
+      </c>
+      <c r="R43" s="14">
+        <f>$P$27-$Q43</f>
+        <v>4111.4717434823833</v>
+      </c>
+      <c r="S43" s="14">
+        <f>$O43-$R43</f>
+        <v>26301.010519090429</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N44">
         <v>19</v>
       </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
+      <c r="O44" s="14">
+        <f t="shared" ref="O44:O49" si="14">$S43</f>
+        <v>26301.010519090429</v>
+      </c>
+      <c r="P44" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q44" s="15">
+        <f t="shared" si="10"/>
+        <v>482.18519284999121</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" si="11"/>
+        <v>4186.848725446227</v>
+      </c>
+      <c r="S44" s="14">
+        <f t="shared" si="12"/>
+        <v>22114.161793644202</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N45">
         <v>20</v>
       </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
+      <c r="O45" s="14">
+        <f t="shared" si="14"/>
+        <v>22114.161793644202</v>
+      </c>
+      <c r="P45" s="14">
+        <f t="shared" si="9"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q45" s="15">
+        <f t="shared" si="10"/>
+        <v>405.42629955014371</v>
+      </c>
+      <c r="R45" s="14">
+        <f t="shared" si="11"/>
+        <v>4263.607618746074</v>
+      </c>
+      <c r="S45" s="14">
+        <f t="shared" si="12"/>
+        <v>17850.554174898127</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N46">
@@ -2519,18 +2731,18 @@
       <c r="S49" s="14"/>
     </row>
     <row r="50" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M50" s="18" t="s">
+      <c r="M50" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="18">
+      <c r="N50" s="16"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="16">
         <f>SUBTOTAL(9,Q26:Q49)</f>
-        <v>12891.585602732805</v>
-      </c>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
+        <v>21231.232540822486</v>
+      </c>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2579,10 +2791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2948F1-41ED-4845-B835-3AA9AD73C7B6}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,171 +2806,1273 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="L1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="G1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>30000</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="N4">
+        <v>83906.583208238793</v>
+      </c>
+      <c r="O4" s="10">
         <v>0.2</v>
       </c>
-      <c r="K4">
-        <f>I4*J4</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="P4">
+        <f>N4*O4</f>
+        <v>16781.316641647758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>262.5</v>
+      </c>
+      <c r="C5">
+        <v>1650</v>
+      </c>
+      <c r="D5">
+        <v>641.66666666666674</v>
+      </c>
+      <c r="E5">
+        <v>1916.666666666667</v>
+      </c>
+      <c r="F5">
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1610.0000000000002</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1916.666666666667</v>
+      </c>
+      <c r="I5" s="30">
+        <f>SUBTOTAL(9,$B5:$H5)</f>
+        <v>9164.1666666666679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>247.04468587017058</v>
+      </c>
+      <c r="C6">
+        <v>1594.651044831236</v>
+      </c>
+      <c r="D6">
+        <v>612.9950068511954</v>
+      </c>
+      <c r="E6">
+        <v>1773.089828551191</v>
+      </c>
+      <c r="F6">
+        <v>1114.5363760930827</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1489.3954559830004</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1773.089828551191</v>
+      </c>
+      <c r="I6" s="30">
+        <f>SUBTOTAL(9,$B6:$H6)</f>
+        <v>8604.8022267310662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>231.31890374306917</v>
+      </c>
+      <c r="C7">
+        <v>1538.2873588177113</v>
+      </c>
+      <c r="D7">
+        <v>583.98884433787703</v>
+      </c>
+      <c r="E7">
+        <v>1626.7611010385015</v>
+      </c>
+      <c r="F7">
+        <v>1061.7978987961401</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1366.4793248723415</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1626.7611010385015</v>
+      </c>
+      <c r="I7" s="30">
+        <f>SUBTOTAL(9,$B7:$H7)</f>
+        <v>8035.3945326441417</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>215.31792042874349</v>
+      </c>
+      <c r="C8">
+        <v>1480.8903385606054</v>
+      </c>
+      <c r="D8">
+        <v>554.64427659523653</v>
+      </c>
+      <c r="E8">
+        <v>1477.627739581819</v>
+      </c>
+      <c r="F8">
+        <v>1008.4441392640665</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1241.2073012487283</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1477.627739581819</v>
+      </c>
+      <c r="I8" s="30">
+        <f>SUBTOTAL(9,$B8:$H8)</f>
+        <v>7455.759455261018</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="20">
-        <v>45830.716446258499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" s="8">
+        <v>199.0369199064171</v>
+      </c>
+      <c r="C9">
+        <v>1422.4410395987859</v>
+      </c>
+      <c r="D9">
+        <v>524.95735556226532</v>
+      </c>
+      <c r="E9">
+        <v>1325.6359886972166</v>
+      </c>
+      <c r="F9">
+        <v>954.46791920411874</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1113.5342305056624</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1325.6359886972166</v>
+      </c>
+      <c r="I9" s="30">
+        <f>SUBTOTAL(9,$B9:$H9)</f>
+        <v>6865.7094421716829</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9">
+        <f>'Loan Manangement System'!C27</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>182.47100187495002</v>
+      </c>
+      <c r="C10">
+        <v>1362.9201701559996</v>
+      </c>
+      <c r="D10">
+        <v>494.92408711724266</v>
+      </c>
+      <c r="E10">
+        <v>1170.7310625873261</v>
+      </c>
+      <c r="F10">
+        <v>899.86197657680498</v>
+      </c>
+      <c r="G10" s="15">
+        <v>983.41409257335442</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1170.7310625873261</v>
+      </c>
+      <c r="I10" s="30">
+        <f>SUBTOTAL(9,$B10:$H10)</f>
+        <v>6265.0534534730041</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>'Loan Manangement System'!G23</f>
+        <v>1265948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>165.61518027793224</v>
+      </c>
+      <c r="C11">
+        <v>1302.3080847734291</v>
+      </c>
+      <c r="D11">
+        <v>464.54043054036146</v>
+      </c>
+      <c r="E11">
+        <v>1012.8571253936627</v>
+      </c>
+      <c r="F11">
+        <v>844.61896461883907</v>
+      </c>
+      <c r="G11" s="15">
+        <v>850.79998533067726</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1012.8571253936627</v>
+      </c>
+      <c r="I11" s="30">
+        <f>SUBTOTAL(9,$B11:$H11)</f>
+        <v>5653.5968963285641</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <f>P4</f>
+        <v>16781.316641647758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>148.46438180296664</v>
+      </c>
+      <c r="C12">
+        <v>1240.5847778255113</v>
+      </c>
+      <c r="D12">
+        <v>433.80229797008332</v>
+      </c>
+      <c r="E12">
+        <v>851.95727107045423</v>
+      </c>
+      <c r="F12">
+        <v>788.73145085469707</v>
+      </c>
+      <c r="G12" s="15">
+        <v>715.6441076991822</v>
+      </c>
+      <c r="H12" s="15">
+        <v>851.95727107045423</v>
+      </c>
+      <c r="I12" s="30">
+        <f>SUBTOTAL(9,$B12:$H12)</f>
+        <v>5031.1415582933487</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <f>I29</f>
+        <v>80538.125167200051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>131.01344435468917</v>
+      </c>
+      <c r="C13">
+        <v>1177.7298769168815</v>
+      </c>
+      <c r="D13">
+        <v>402.70555385315191</v>
+      </c>
+      <c r="E13">
+        <v>687.97350287271752</v>
+      </c>
+      <c r="F13">
+        <v>732.19191609663994</v>
+      </c>
+      <c r="G13" s="15">
+        <v>577.89774241308328</v>
+      </c>
+      <c r="H13" s="15">
+        <v>687.97350287271752</v>
+      </c>
+      <c r="I13" s="30">
+        <f>SUBTOTAL(9,$B13:$H13)</f>
+        <v>4397.4855393798807</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="38">
+        <f>SUM(M9:M12)</f>
+        <v>1433267.4418088479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>113.25711550106682</v>
+      </c>
+      <c r="C14">
+        <v>1113.7226361582605</v>
+      </c>
+      <c r="D14">
+        <v>371.24601438818962</v>
+      </c>
+      <c r="E14">
+        <v>520.8467124511908</v>
+      </c>
+      <c r="F14">
+        <v>674.99275343307215</v>
+      </c>
+      <c r="G14" s="15">
+        <v>437.51123845900088</v>
+      </c>
+      <c r="H14" s="15">
+        <v>520.8467124511908</v>
+      </c>
+      <c r="I14" s="30">
+        <f>SUBTOTAL(9,$B14:$H14)</f>
+        <v>3752.4231828419715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="21">
-        <v>4166.2870962761899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B15">
+        <v>95.190050892506093</v>
+      </c>
+      <c r="C15">
+        <v>1048.5419293190646</v>
+      </c>
+      <c r="D15">
+        <v>339.41944696280279</v>
+      </c>
+      <c r="E15">
+        <v>350.51665854658489</v>
+      </c>
+      <c r="F15">
+        <v>617.12626720509604</v>
+      </c>
+      <c r="G15" s="15">
+        <v>294.4339931791319</v>
+      </c>
+      <c r="H15" s="15">
+        <v>350.51665854658489</v>
+      </c>
+      <c r="I15" s="30">
+        <f>SUBTOTAL(9,$B15:$H15)</f>
+        <v>3095.7450046517715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>76.806812653295552</v>
+      </c>
+      <c r="C16">
+        <v>982.16624285448347</v>
+      </c>
+      <c r="D16">
+        <v>307.22156958411978</v>
+      </c>
+      <c r="E16">
+        <v>176.92194527547395</v>
+      </c>
+      <c r="F16">
+        <v>558.58467197112702</v>
+      </c>
+      <c r="G16" s="15">
+        <v>148.61443403139879</v>
+      </c>
+      <c r="H16" s="15">
+        <v>176.92194527547395</v>
+      </c>
+      <c r="I16" s="30">
+        <f>SUBTOTAL(9,$B16:$H16)</f>
+        <v>2427.2376216453731</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>58.101867744898819</v>
+      </c>
+      <c r="C17">
+        <v>914.5736688047183</v>
+      </c>
+      <c r="D17">
+        <v>274.64805030268548</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>499.3600914594283</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30">
+        <f>SUBTOTAL(9,$B17:$H17)</f>
+        <v>1746.683678311731</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B18">
+        <v>39.069586300605138</v>
+      </c>
+      <c r="C18">
+        <v>845.74189756404076</v>
+      </c>
+      <c r="D18">
+        <v>241.69450662963445</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>439.44455750842639</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30">
+        <f>SUBTOTAL(9,$B18:$H18)</f>
+        <v>1565.9505480027067</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>36552</v>
+      </c>
+      <c r="N18" s="11">
+        <f>($M18/$M$38)</f>
+        <v>2.8873223860695699E-2</v>
+      </c>
+      <c r="O18">
+        <f>$N18*$M$13</f>
+        <v>41383.05169959351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>19.704239931036323</v>
+      </c>
+      <c r="C19">
+        <v>775.64821051728416</v>
+      </c>
+      <c r="D19">
+        <v>208.35650494706445</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>378.83000899466276</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
+        <f>SUBTOTAL(9,$B19:$H19)</f>
+        <v>1382.5389643900476</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>104880</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" ref="N19:N38" si="0">($M19/$M$38)</f>
+        <v>8.2847004774287733E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O37" si="1">$N19*$M$13</f>
+        <v>118741.91459436879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>704.269472541337</v>
+      </c>
+      <c r="D20">
+        <v>174.62955991153117</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>317.50829074823861</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="30">
+        <f>SUBTOTAL(9,$B20:$H20)</f>
+        <v>1196.4073232011067</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>117120</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2515648352065008E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>132599.66664085118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>631.58212436916415</v>
+      </c>
+      <c r="D21">
+        <v>140.50913385058331</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>255.47115245560613</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="30">
+        <f>SUBTOTAL(9,$B21:$H21)</f>
+        <v>1027.5624106753537</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>87744</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9310903765399529E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>99341.061729293433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>557.56217481383487</v>
+      </c>
+      <c r="D22">
+        <v>105.99063615225776</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>192.71024754955963</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="30">
+        <f>SUBTOTAL(9,$B22:$H22)</f>
+        <v>856.26305851565235</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>67632</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="0"/>
+        <v>5.3423995298385082E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>76570.873072524308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>482.18519284999121</v>
+      </c>
+      <c r="D23">
+        <v>71.069422647451731</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>129.21713208627594</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30">
+        <f>SUBTOTAL(9,$B23:$H23)</f>
+        <v>682.47174758371887</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>68832</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4371901531500504E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>77929.476214336304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>405.42629955014371</v>
+      </c>
+      <c r="D24">
+        <v>35.740794985089636</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>64.983263609253953</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="30">
+        <f>SUBTOTAL(9,$B24:$H24)</f>
+        <v>506.15035814448731</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>86952</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8685285651543346E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>98444.3836556975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>327.26015987313235</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="30">
+        <f>SUBTOTAL(9,$B25:$H25)</f>
+        <v>327.26015987313235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>61488</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="0"/>
+        <v>4.857071538483413E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>69614.824986446867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>247.66097430204243</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30">
+        <f>SUBTOTAL(9,$B26:$H26)</f>
+        <v>247.66097430204243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <v>34968</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7621987632983347E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>39589.695552401674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>166.60247032881588</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30">
+        <f>SUBTOTAL(9,$B27:$H27)</f>
+        <v>166.60247032881588</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <v>37320</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="0"/>
+        <v>2.947988384988957E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>42252.557710353198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>84.057893782746859</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="30">
+        <f>SUBTOTAL(9,$B28:$H28)</f>
+        <v>84.057893782746859</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>39000</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="0"/>
+        <v>3.0806952576251156E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>44154.602108889994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="17">
+        <f>SUBTOTAL(9,B$5:B$28)</f>
+        <v>2184.9121112823477</v>
+      </c>
+      <c r="C29" s="17">
+        <f>SUBTOTAL(9,C$5:C$28)</f>
+        <v>22056.814039109224</v>
+      </c>
+      <c r="D29" s="17">
+        <f>SUBTOTAL(9,D$5:D$28)</f>
+        <v>6984.7501598554918</v>
+      </c>
+      <c r="E29" s="17">
+        <f>SUBTOTAL(9,E$5:E$28)</f>
+        <v>12891.585602732805</v>
+      </c>
+      <c r="F29" s="17">
+        <f>SUBTOTAL(9,F$5:F$28)</f>
         <v>12699.545745191803</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G29" s="17">
+        <f>SUBTOTAL(9,G$5:G$28)</f>
+        <v>10828.931906295558</v>
+      </c>
+      <c r="H29" s="17">
+        <f>SUBTOTAL(9,H$5:H$28)</f>
+        <v>12891.585602732805</v>
+      </c>
+      <c r="I29" s="17">
+        <f>SUM(B29:H29)</f>
+        <v>80538.125167200051</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>59760</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="0"/>
+        <v>4.7205730409147925E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>67658.436462237587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="20">
-        <v>2836.1488326012163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="M30">
+        <v>73920</v>
+      </c>
+      <c r="N30" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8391023959909888E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>83689.953535619192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31">
+        <v>14280</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1280084174073501E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>16167.377387562799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32">
+        <v>31040</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4519174563252203E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>35142.53460153706</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="20">
-        <v>34197.336782652485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="M33">
+        <v>89760</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="0"/>
+        <v>7.0903386237033433E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>101623.51500753759</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20">
-        <v>21719.743423484244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="M34">
+        <v>56160</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4362011709801669E-2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>63582.627036801598</v>
+      </c>
+    </row>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>39760</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1407293190557593E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>45015.050765370928</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>95400</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5358545532675902E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>108008.94977405398</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="20">
-        <v>24512.060865036157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="22">
-        <f>SUM(C5:C11)</f>
-        <v>145961.83919150059</v>
-      </c>
+      <c r="M37">
+        <v>63380</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" si="0"/>
+        <v>5.0065247545712781E-2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>71756.889273370456</v>
+      </c>
+    </row>
+    <row r="38" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K38" s="34"/>
+      <c r="L38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" s="41">
+        <f>SUBTOTAL(9,M18:M37)</f>
+        <v>1265948</v>
+      </c>
+      <c r="N38" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="41">
+        <f>SUM(O18:O37)</f>
+        <v>1433267.4418088477</v>
+      </c>
+      <c r="P38" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="L16:O16"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{557AD8DD-77B4-4A29-A310-2690FA4949C1}">
+          <x14:formula1>
+            <xm:f>'Loan Manangement System'!$A$3:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:H4 L17:L37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558DCE2-5DA2-4B1B-A291-6DCEC7E79A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217780E-35A7-4EDE-A81F-65D9B6143C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Manangement System" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>MemberID</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Educationl loan</t>
-  </si>
-  <si>
-    <t>UNGANA SACCO</t>
   </si>
   <si>
     <t>Allan  Ramos</t>
@@ -369,13 +366,20 @@
   <si>
     <t>DIVIDENDS</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                     UNGANA SACCO</t>
+  </si>
+  <si>
+    <t>Totoal Registration fees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -400,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +465,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -489,12 +517,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
@@ -523,9 +548,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,30 +573,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,17 +958,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -952,197 +987,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="28" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="M2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="9">
-        <v>45292</v>
-      </c>
-      <c r="D3">
-        <f>DATEDIF($C3,$B$29,"YM")</f>
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">$D3*4</f>
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>1523</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G22" si="1">$E3*$F3</f>
-        <v>36552</v>
-      </c>
-      <c r="H3">
-        <f>$G3*1.5</f>
-        <v>54828</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="P3" s="11">
-        <f>$O3/12</f>
-        <v>1.8333333333333333E-2</v>
-      </c>
-      <c r="Q3">
-        <v>24</v>
-      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8">
         <v>45292</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D22" si="2">DATEDIF($C4,$B$29,"YM")</f>
+        <f>DATEDIF($C4,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E23" si="0">$D4*4</f>
         <v>24</v>
       </c>
       <c r="F4">
-        <v>4370</v>
+        <v>1523</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>104880</v>
+        <f t="shared" ref="G4:G23" si="1">$E4*$F4</f>
+        <v>36552</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H22" si="3">$G4*1.5</f>
-        <v>157320</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>15000</v>
-      </c>
-      <c r="K4" s="8"/>
+        <f>$G4*1.5</f>
+        <v>54828</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="P4" s="11">
+        <v>31</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="P4" s="10">
         <f>$O4/12</f>
-        <v>1.7499999999999998E-2</v>
+        <v>1.8333333333333333E-2</v>
       </c>
       <c r="Q4">
-        <v>15</v>
-      </c>
-      <c r="W4" s="10"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8">
         <v>45292</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C5,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E5">
@@ -1150,53 +1143,53 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>4880</v>
+        <v>4370</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>117120</v>
+        <v>104880</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>175680</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
+        <f t="shared" ref="H5:H23" si="2">$G5*1.5</f>
+        <v>157320</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="7"/>
       <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="P5" s="11">
+        <v>32</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="P5" s="10">
         <f>$O5/12</f>
-        <v>1.9166666666666669E-2</v>
+        <v>1.7499999999999998E-2</v>
       </c>
       <c r="Q5">
-        <v>12</v>
-      </c>
-      <c r="W5" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8">
         <v>45292</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C6,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E6">
@@ -1204,52 +1197,53 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>3656</v>
+        <v>4880</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>87744</v>
+        <v>117120</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
-        <v>131616</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>175680</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="7"/>
       <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P6" s="11">
+        <v>33</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="P6" s="10">
         <f>$O6/12</f>
-        <v>1.1666666666666667E-2</v>
+        <v>1.9166666666666669E-2</v>
       </c>
       <c r="Q6">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8">
         <v>45292</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C7,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E7">
@@ -1257,51 +1251,52 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <v>2818</v>
+        <v>3656</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>67632</v>
+        <v>87744</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
-        <v>101448</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>131616</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
       <c r="M7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P7" s="10">
+        <f>$O7/12</f>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8">
         <v>45292</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C8,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E8">
@@ -1309,37 +1304,51 @@
         <v>24</v>
       </c>
       <c r="F8">
-        <v>2868</v>
+        <v>2818</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>68832</v>
+        <v>67632</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
-        <v>103248</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>101448</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="Z8" s="1"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8">
         <v>45292</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C9,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E9">
@@ -1347,41 +1356,37 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>3623</v>
+        <v>2868</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>86952</v>
+        <v>68832</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
-        <v>130428</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>103248</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="K9" s="7"/>
+      <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8">
         <v>45292</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C10,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E10">
@@ -1389,50 +1394,41 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <v>2562</v>
+        <v>3623</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>61488</v>
+        <v>86952</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
-        <v>92232</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="21">
-        <v>90000</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="M10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+        <f t="shared" si="2"/>
+        <v>130428</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8">
         <v>45292</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C11,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E11">
@@ -1440,40 +1436,50 @@
         <v>24</v>
       </c>
       <c r="F11">
-        <v>1457</v>
+        <v>2562</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>34968</v>
+        <v>61488</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>52452</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+        <f t="shared" si="2"/>
+        <v>92232</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="20">
+        <v>90000</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="M11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="9">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8">
         <v>45292</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C12,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E12">
@@ -1481,58 +1487,40 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>1555</v>
+        <v>1457</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>37320</v>
+        <v>34968</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
-        <v>55980</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>52452</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="1"/>
+      <c r="K12" s="7"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="9">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8">
         <v>45292</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C13,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E13">
@@ -1540,62 +1528,58 @@
         <v>24</v>
       </c>
       <c r="F13">
-        <v>1625</v>
+        <v>1555</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>39000</v>
+        <v>37320</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>58500</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="22">
-        <v>55000</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" ref="N13:N20" si="4">VLOOKUP($M13,$A$3:$I$22,9,FALSE)</f>
-        <v>L02</v>
-      </c>
-      <c r="O13">
-        <f>VLOOKUP($M13,$A$3:$J$24,10,FALSE)</f>
-        <v>15000</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="11">
-        <f>VLOOKUP($P13,$M$2:$Q$7,4,FALSE)</f>
-        <v>1.7499999999999998E-2</v>
-      </c>
-      <c r="R13">
-        <f>VLOOKUP($P13,$M$2:$Q$7,5,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="S13" s="14">
-        <f>-PMT($Q13,$R13,$O13)</f>
-        <v>1145.6608074188232</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>55980</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="9">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8">
         <v>45292</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C14,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E14">
@@ -1603,62 +1587,62 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>2490</v>
+        <v>1625</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>59760</v>
+        <v>39000</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
-        <v>89640</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="M14" s="8" t="s">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>58500</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="21">
+        <v>55000</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="4"/>
-        <v>L01</v>
+        <f t="shared" ref="N14:N20" si="3">VLOOKUP($M14,$A$4:$I$23,9,FALSE)</f>
+        <v>L02</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O20" si="5">VLOOKUP($M14,$A$3:$J$24,10,FALSE)</f>
-        <v>90000</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" ref="Q14:Q20" si="6">VLOOKUP($P14,$M$2:$Q$7,4,FALSE)</f>
-        <v>1.8333333333333333E-2</v>
+        <f>VLOOKUP($M14,$A$4:$J$25,10,FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="10">
+        <f>VLOOKUP($P14,$M$3:$Q$8,4,FALSE)</f>
+        <v>1.7499999999999998E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R20" si="7">VLOOKUP($P14,$M$2:$Q$7,5,FALSE)</f>
-        <v>24</v>
-      </c>
-      <c r="S14" s="14">
-        <f t="shared" ref="S14:S20" si="8">-PMT($Q14,$R14,$O14)</f>
-        <v>4669.033918296218</v>
+        <f>VLOOKUP($P14,$M$3:$Q$8,5,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="S14" s="13">
+        <f>-PMT($Q14,$R14,$O14)</f>
+        <v>1145.6608074188232</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="9">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8">
         <v>45292</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C15,$B$31,"YM")</f>
         <v>6</v>
       </c>
       <c r="E15">
@@ -1666,125 +1650,125 @@
         <v>24</v>
       </c>
       <c r="F15">
-        <v>3080</v>
+        <v>2490</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>73920</v>
+        <v>59760</v>
       </c>
       <c r="H15">
+        <f t="shared" si="2"/>
+        <v>89640</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v>110880</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="22">
-        <v>100000</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="M15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="4"/>
-        <v>L04</v>
+        <v>L01</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
-        <v>55000</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" si="6"/>
-        <v>1.1666666666666667E-2</v>
+        <f t="shared" ref="O15:O20" si="4">VLOOKUP($M15,$A$4:$J$25,10,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" ref="Q15:Q20" si="5">VLOOKUP($P15,$M$3:$Q$8,4,FALSE)</f>
+        <v>1.8333333333333333E-2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="S15" s="14">
-        <f t="shared" si="8"/>
-        <v>3099.2375079927742</v>
+        <f t="shared" ref="R15:R20" si="6">VLOOKUP($P15,$M$3:$Q$8,5,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" ref="S15:S20" si="7">-PMT($Q15,$R15,$O15)</f>
+        <v>4669.033918296218</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45323</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8">
+        <v>45292</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>DATEDIF($C16,$B$31,"YM")</f>
+        <v>6</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>714</v>
+        <v>3080</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>14280</v>
+        <v>73920</v>
       </c>
       <c r="H16">
+        <f t="shared" si="2"/>
+        <v>110880</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="21">
+        <v>100000</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v>21420</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="M16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" t="str">
+        <v>L04</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="4"/>
-        <v>L04</v>
-      </c>
-      <c r="O16">
+        <v>55000</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="10">
         <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="11">
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="6"/>
-        <v>1.9166666666666669E-2</v>
-      </c>
-      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16" s="13">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="S16" s="14">
-        <f t="shared" si="8"/>
-        <v>9407.6321335610664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3099.2375079927742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8">
         <v>45323</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C17,$B$31,"YM")</f>
         <v>5</v>
       </c>
       <c r="E17">
@@ -1792,62 +1776,62 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>1552</v>
+        <v>714</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>31040</v>
+        <v>14280</v>
       </c>
       <c r="H17">
+        <f t="shared" si="2"/>
+        <v>21420</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="3"/>
-        <v>46560</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="M17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="str">
+        <v>L04</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="4"/>
-        <v>L04</v>
-      </c>
-      <c r="O17">
+        <v>100000</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="10">
         <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="11">
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="6"/>
-        <v>1.1666666666666667E-2</v>
-      </c>
-      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17" s="13">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="S17" s="14">
-        <f t="shared" si="8"/>
-        <v>5634.9772872595904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9407.6321335610664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="9">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8">
         <v>45323</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C18,$B$31,"YM")</f>
         <v>5</v>
       </c>
       <c r="E18">
@@ -1855,62 +1839,62 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>4488</v>
+        <v>1552</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>89760</v>
+        <v>31040</v>
       </c>
       <c r="H18">
+        <f t="shared" si="2"/>
+        <v>46560</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="3"/>
-        <v>134640</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="1">
+        <v>L04</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="M18" s="8" t="s">
+      <c r="P18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="5"/>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="4"/>
-        <v>L03</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="5"/>
-        <v>84000</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="6"/>
-        <v>1.9166666666666669E-2</v>
-      </c>
-      <c r="R18">
+      <c r="S18" s="13">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="S18" s="14">
-        <f t="shared" si="8"/>
-        <v>7902.410992191295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5634.9772872595904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="9">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8">
         <v>45323</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C19,$B$31,"YM")</f>
         <v>5</v>
       </c>
       <c r="E19">
@@ -1918,62 +1902,62 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2808</v>
+        <v>4488</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>56160</v>
+        <v>89760</v>
       </c>
       <c r="H19">
+        <f t="shared" si="2"/>
+        <v>134640</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="3"/>
-        <v>84240</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="1">
+        <v>L03</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
         <v>84000</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="4"/>
-        <v>L03</v>
-      </c>
-      <c r="O19">
+      <c r="P19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="10">
         <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="11">
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="6"/>
-        <v>1.9166666666666669E-2</v>
-      </c>
-      <c r="R19">
+        <v>12</v>
+      </c>
+      <c r="S19" s="13">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="S19" s="14">
-        <f t="shared" si="8"/>
-        <v>9407.6321335610664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7902.410992191295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="9">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8">
         <v>45323</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C20,$B$31,"YM")</f>
         <v>5</v>
       </c>
       <c r="E20">
@@ -1981,40 +1965,62 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>1988</v>
+        <v>2808</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>39760</v>
+        <v>56160</v>
       </c>
       <c r="H20">
+        <f t="shared" si="2"/>
+        <v>84240</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="3"/>
-        <v>59640</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="11"/>
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>L03</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="7"/>
+        <v>9407.6321335610664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="9">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8">
         <v>45323</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C21,$B$31,"YM")</f>
         <v>5</v>
       </c>
       <c r="E21">
@@ -2022,36 +2028,40 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>4770</v>
+        <v>1988</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>95400</v>
+        <v>39760</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
-        <v>143100</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>59640</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J21" s="1">
-        <v>140000</v>
-      </c>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="10"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8">
         <v>45323</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f>DATEDIF($C22,$B$31,"YM")</f>
         <v>5</v>
       </c>
       <c r="E22">
@@ -2059,729 +2069,778 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>3169</v>
+        <v>4770</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
+        <v>95400</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>143100</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1">
+        <v>140000</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45323</v>
+      </c>
+      <c r="D23">
+        <f>DATEDIF($C23,$B$31,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>3169</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
         <v>63380</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
+      <c r="H23">
+        <f t="shared" si="2"/>
         <v>95070</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <v>100000</v>
       </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15">
+        <f>SUBTOTAL(9,F4:F23)</f>
+        <v>55996</v>
+      </c>
+      <c r="G24" s="15">
+        <f>SUBTOTAL(9,G4:G23)</f>
+        <v>1265948</v>
+      </c>
+      <c r="H24" s="15">
+        <f>SUBTOTAL(9,H4:H23)</f>
+        <v>1898922</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15">
+        <f>SUBTOTAL(9,J4:J23)</f>
+        <v>684000</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16">
-        <f>SUBTOTAL(9,F3:F22)</f>
-        <v>55996</v>
-      </c>
-      <c r="G23" s="16">
-        <f>SUBTOTAL(9,G3:G22)</f>
-        <v>1265948</v>
-      </c>
-      <c r="H23" s="16">
-        <f>SUBTOTAL(9,H3:H22)</f>
-        <v>1898922</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16">
-        <f>SUBTOTAL(9,J3:J22)</f>
-        <v>684000</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="M25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="M26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="M26" s="8" t="s">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="1"/>
+      <c r="M27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>1</v>
       </c>
-      <c r="O26">
-        <f>VLOOKUP(M26,A3:J22,10,FALSE)</f>
+      <c r="O27">
+        <f>VLOOKUP(M27,A4:J23,10,FALSE)</f>
         <v>90000</v>
       </c>
-      <c r="P26" s="14">
-        <f>VLOOKUP($M26,$M$13:$S$120,7,FALSE)</f>
+      <c r="P27" s="13">
+        <f>VLOOKUP($M27,$M$14:$S$122,7,FALSE)</f>
         <v>4669.033918296218</v>
       </c>
-      <c r="Q26" s="15">
-        <f>VLOOKUP($M26,$M$13:$S$20,5,FALSE)*O26</f>
+      <c r="Q27" s="14">
+        <f>VLOOKUP($M27,$M$14:$S$21,5,FALSE)*O27</f>
         <v>1650</v>
       </c>
-      <c r="R26" s="15">
-        <f>P26-Q26</f>
+      <c r="R27" s="14">
+        <f>P27-Q27</f>
         <v>3019.033918296218</v>
       </c>
-      <c r="S26" s="14">
-        <f>O26-R26</f>
+      <c r="S27" s="13">
+        <f>O27-R27</f>
         <v>86980.96608170378</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="54">
         <v>3500</v>
       </c>
-      <c r="C27">
-        <f>B27*20</f>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" s="13">
+        <f>$S27</f>
+        <v>86980.96608170378</v>
+      </c>
+      <c r="P28" s="13">
+        <f>$P$27</f>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q28" s="14">
+        <f>VLOOKUP($M$27,$M$14:$S$21,5,FALSE)*$O28</f>
+        <v>1594.651044831236</v>
+      </c>
+      <c r="R28" s="13">
+        <f>$P$28-$Q28</f>
+        <v>3074.3828734649819</v>
+      </c>
+      <c r="S28" s="13">
+        <f>$O28-$R28</f>
+        <v>83906.583208238793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="53">
+        <f>B28*20</f>
         <v>70000</v>
       </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27" s="14">
-        <f>$S26</f>
-        <v>86980.96608170378</v>
-      </c>
-      <c r="P27" s="14">
-        <f>$P$26</f>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" s="13">
+        <f>$S28</f>
+        <v>83906.583208238793</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" ref="P29:P46" si="8">$P$27</f>
         <v>4669.033918296218</v>
       </c>
-      <c r="Q27" s="15">
-        <f>VLOOKUP($M$26,$M$13:$S$20,5,FALSE)*$O27</f>
-        <v>1594.651044831236</v>
-      </c>
-      <c r="R27" s="14">
-        <f>$P$27-$Q27</f>
-        <v>3074.3828734649819</v>
-      </c>
-      <c r="S27" s="14">
-        <f>$O27-$R27</f>
-        <v>83906.583208238793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="Q29" s="14">
+        <f t="shared" ref="Q29:Q46" si="9">VLOOKUP($M$27,$M$14:$S$21,5,FALSE)*$O29</f>
+        <v>1538.2873588177113</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" ref="R29:R46" si="10">$P$28-$Q29</f>
+        <v>3130.7465594785067</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" ref="S29:S46" si="11">$O29-$R29</f>
+        <v>80775.836648760291</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="49">
         <f ca="1">TODAY()</f>
-        <v>45505</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-      <c r="O28" s="14">
-        <f>$S27</f>
-        <v>83906.583208238793</v>
-      </c>
-      <c r="P28" s="14">
-        <f t="shared" ref="P28:P49" si="9">$P$26</f>
+        <v>45506</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" ref="O30:O43" si="12">$S29</f>
+        <v>80775.836648760291</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="8"/>
         <v>4669.033918296218</v>
       </c>
-      <c r="Q28" s="15">
-        <f t="shared" ref="Q28:Q49" si="10">VLOOKUP($M$26,$M$13:$S$20,5,FALSE)*$O28</f>
-        <v>1538.2873588177113</v>
-      </c>
-      <c r="R28" s="14">
-        <f t="shared" ref="R28:R49" si="11">$P$27-$Q28</f>
-        <v>3130.7465594785067</v>
-      </c>
-      <c r="S28" s="14">
-        <f t="shared" ref="S28:S49" si="12">$O28-$R28</f>
-        <v>80775.836648760291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="Q30" s="14">
+        <f t="shared" si="9"/>
+        <v>1480.8903385606054</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="10"/>
+        <v>3188.1435797356125</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="11"/>
+        <v>77587.693069024681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="51">
         <v>45504</v>
       </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29" s="14">
-        <f t="shared" ref="O28:O42" si="13">$S28</f>
-        <v>80775.836648760291</v>
-      </c>
-      <c r="P29" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="10"/>
-        <v>1480.8903385606054</v>
-      </c>
-      <c r="R29" s="14">
-        <f t="shared" si="11"/>
-        <v>3188.1435797356125</v>
-      </c>
-      <c r="S29" s="14">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" s="13">
         <f t="shared" si="12"/>
         <v>77587.693069024681</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N30">
-        <v>5</v>
-      </c>
-      <c r="O30" s="14">
-        <f t="shared" si="13"/>
-        <v>77587.693069024681</v>
-      </c>
-      <c r="P30" s="14">
+      <c r="P31" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q31" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q30" s="15">
+        <v>1422.4410395987859</v>
+      </c>
+      <c r="R31" s="13">
         <f t="shared" si="10"/>
-        <v>1422.4410395987859</v>
-      </c>
-      <c r="R30" s="14">
+        <v>3246.5928786974318</v>
+      </c>
+      <c r="S31" s="13">
         <f t="shared" si="11"/>
-        <v>3246.5928786974318</v>
-      </c>
-      <c r="S30" s="14">
+        <v>74341.100190327255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32" s="13">
         <f t="shared" si="12"/>
         <v>74341.100190327255</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="O31" s="14">
-        <f t="shared" si="13"/>
-        <v>74341.100190327255</v>
-      </c>
-      <c r="P31" s="14">
+      <c r="P32" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q32" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q31" s="15">
+        <v>1362.9201701559996</v>
+      </c>
+      <c r="R32" s="13">
         <f t="shared" si="10"/>
-        <v>1362.9201701559996</v>
-      </c>
-      <c r="R31" s="14">
+        <v>3306.1137481402184</v>
+      </c>
+      <c r="S32" s="13">
         <f t="shared" si="11"/>
-        <v>3306.1137481402184</v>
-      </c>
-      <c r="S31" s="14">
+        <v>71034.986442187044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33" s="13">
         <f t="shared" si="12"/>
         <v>71034.986442187044</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N32">
-        <v>7</v>
-      </c>
-      <c r="O32" s="14">
-        <f t="shared" si="13"/>
-        <v>71034.986442187044</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="P33" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q33" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q32" s="15">
+        <v>1302.3080847734291</v>
+      </c>
+      <c r="R33" s="13">
         <f t="shared" si="10"/>
-        <v>1302.3080847734291</v>
-      </c>
-      <c r="R32" s="14">
+        <v>3366.7258335227889</v>
+      </c>
+      <c r="S33" s="13">
         <f t="shared" si="11"/>
-        <v>3366.7258335227889</v>
-      </c>
-      <c r="S32" s="14">
+        <v>67668.260608664248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34" s="13">
         <f t="shared" si="12"/>
         <v>67668.260608664248</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="N33">
-        <v>8</v>
-      </c>
-      <c r="O33" s="14">
-        <f t="shared" si="13"/>
-        <v>67668.260608664248</v>
-      </c>
-      <c r="P33" s="14">
+      <c r="P34" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q34" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q33" s="15">
+        <v>1240.5847778255113</v>
+      </c>
+      <c r="R34" s="13">
         <f t="shared" si="10"/>
-        <v>1240.5847778255113</v>
-      </c>
-      <c r="R33" s="14">
+        <v>3428.4491404707069</v>
+      </c>
+      <c r="S34" s="13">
         <f t="shared" si="11"/>
-        <v>3428.4491404707069</v>
-      </c>
-      <c r="S33" s="14">
+        <v>64239.81146819354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="N35">
+        <v>9</v>
+      </c>
+      <c r="O35" s="13">
         <f t="shared" si="12"/>
         <v>64239.81146819354</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="N34">
-        <v>9</v>
-      </c>
-      <c r="O34" s="14">
-        <f t="shared" si="13"/>
-        <v>64239.81146819354</v>
-      </c>
-      <c r="P34" s="14">
+      <c r="P35" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q35" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q34" s="15">
+        <v>1177.7298769168815</v>
+      </c>
+      <c r="R35" s="13">
         <f t="shared" si="10"/>
-        <v>1177.7298769168815</v>
-      </c>
-      <c r="R34" s="14">
+        <v>3491.3040413793365</v>
+      </c>
+      <c r="S35" s="13">
         <f t="shared" si="11"/>
-        <v>3491.3040413793365</v>
-      </c>
-      <c r="S34" s="14">
+        <v>60748.507426814205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36" s="13">
         <f t="shared" si="12"/>
         <v>60748.507426814205</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="N35">
-        <v>10</v>
-      </c>
-      <c r="O35" s="14">
-        <f t="shared" si="13"/>
-        <v>60748.507426814205</v>
-      </c>
-      <c r="P35" s="14">
+      <c r="P36" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q36" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q35" s="15">
+        <v>1113.7226361582605</v>
+      </c>
+      <c r="R36" s="13">
         <f t="shared" si="10"/>
-        <v>1113.7226361582605</v>
-      </c>
-      <c r="R35" s="14">
+        <v>3555.3112821379573</v>
+      </c>
+      <c r="S36" s="13">
         <f t="shared" si="11"/>
-        <v>3555.3112821379573</v>
-      </c>
-      <c r="S35" s="14">
-        <f t="shared" si="12"/>
         <v>57193.196144676251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="N36">
-        <v>11</v>
-      </c>
-      <c r="O36" s="14">
-        <f t="shared" si="13"/>
-        <v>57193.196144676251</v>
-      </c>
-      <c r="P36" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" si="10"/>
-        <v>1048.5419293190646</v>
-      </c>
-      <c r="R36" s="14">
-        <f t="shared" si="11"/>
-        <v>3620.4919889771536</v>
-      </c>
-      <c r="S36" s="14">
-        <f t="shared" si="12"/>
-        <v>53572.704155699095</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="N37">
-        <v>12</v>
-      </c>
-      <c r="O37" s="14">
-        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" si="12"/>
+        <v>57193.196144676251</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q37" s="14">
+        <f t="shared" si="9"/>
+        <v>1048.5419293190646</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" si="10"/>
+        <v>3620.4919889771536</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="11"/>
         <v>53572.704155699095</v>
-      </c>
-      <c r="P37" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="10"/>
-        <v>982.16624285448347</v>
-      </c>
-      <c r="R37" s="14">
-        <f t="shared" si="11"/>
-        <v>3686.8676754417347</v>
-      </c>
-      <c r="S37" s="14">
-        <f t="shared" si="12"/>
-        <v>49885.836480257363</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="N38">
-        <v>13</v>
-      </c>
-      <c r="O38" s="14">
-        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="12"/>
+        <v>53572.704155699095</v>
+      </c>
+      <c r="P38" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q38" s="14">
+        <f t="shared" si="9"/>
+        <v>982.16624285448347</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="10"/>
+        <v>3686.8676754417347</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="11"/>
         <v>49885.836480257363</v>
-      </c>
-      <c r="P38" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="10"/>
-        <v>914.5736688047183</v>
-      </c>
-      <c r="R38" s="14">
-        <f t="shared" si="11"/>
-        <v>3754.4602494914998</v>
-      </c>
-      <c r="S38" s="14">
-        <f t="shared" si="12"/>
-        <v>46131.376230765862</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="N39">
-        <v>14</v>
-      </c>
-      <c r="O39" s="14">
-        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="12"/>
+        <v>49885.836480257363</v>
+      </c>
+      <c r="P39" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q39" s="14">
+        <f t="shared" si="9"/>
+        <v>914.5736688047183</v>
+      </c>
+      <c r="R39" s="13">
+        <f t="shared" si="10"/>
+        <v>3754.4602494914998</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" si="11"/>
         <v>46131.376230765862</v>
-      </c>
-      <c r="P39" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q39" s="15">
-        <f t="shared" si="10"/>
-        <v>845.74189756404076</v>
-      </c>
-      <c r="R39" s="14">
-        <f t="shared" si="11"/>
-        <v>3823.2920207321772</v>
-      </c>
-      <c r="S39" s="14">
-        <f t="shared" si="12"/>
-        <v>42308.084210033681</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="N40">
-        <v>15</v>
-      </c>
-      <c r="O40" s="14">
-        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="O40" s="13">
+        <f t="shared" si="12"/>
+        <v>46131.376230765862</v>
+      </c>
+      <c r="P40" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q40" s="14">
+        <f t="shared" si="9"/>
+        <v>845.74189756404076</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" si="10"/>
+        <v>3823.2920207321772</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="11"/>
         <v>42308.084210033681</v>
-      </c>
-      <c r="P40" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="10"/>
-        <v>775.64821051728416</v>
-      </c>
-      <c r="R40" s="14">
-        <f t="shared" si="11"/>
-        <v>3893.3857077789339</v>
-      </c>
-      <c r="S40" s="14">
-        <f t="shared" si="12"/>
-        <v>38414.698502254745</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="N41">
-        <v>16</v>
-      </c>
-      <c r="O41" s="14">
-        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" si="12"/>
+        <v>42308.084210033681</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q41" s="14">
+        <f t="shared" si="9"/>
+        <v>775.64821051728416</v>
+      </c>
+      <c r="R41" s="13">
+        <f t="shared" si="10"/>
+        <v>3893.3857077789339</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="11"/>
         <v>38414.698502254745</v>
-      </c>
-      <c r="P41" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q41" s="15">
-        <f t="shared" si="10"/>
-        <v>704.269472541337</v>
-      </c>
-      <c r="R41" s="14">
-        <f t="shared" si="11"/>
-        <v>3964.7644457548809</v>
-      </c>
-      <c r="S41" s="14">
-        <f t="shared" si="12"/>
-        <v>34449.934056499864</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="N42">
-        <v>17</v>
-      </c>
-      <c r="O42" s="14">
-        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="O42" s="13">
+        <f t="shared" si="12"/>
+        <v>38414.698502254745</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q42" s="14">
+        <f t="shared" si="9"/>
+        <v>704.269472541337</v>
+      </c>
+      <c r="R42" s="13">
+        <f t="shared" si="10"/>
+        <v>3964.7644457548809</v>
+      </c>
+      <c r="S42" s="13">
+        <f t="shared" si="11"/>
         <v>34449.934056499864</v>
-      </c>
-      <c r="P42" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q42" s="15">
-        <f t="shared" si="10"/>
-        <v>631.58212436916415</v>
-      </c>
-      <c r="R42" s="14">
-        <f t="shared" si="11"/>
-        <v>4037.4517939270536</v>
-      </c>
-      <c r="S42" s="14">
-        <f t="shared" si="12"/>
-        <v>30412.482262572812</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="N43">
+        <v>17</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="12"/>
+        <v>34449.934056499864</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q43" s="14">
+        <f t="shared" si="9"/>
+        <v>631.58212436916415</v>
+      </c>
+      <c r="R43" s="13">
+        <f t="shared" si="10"/>
+        <v>4037.4517939270536</v>
+      </c>
+      <c r="S43" s="13">
+        <f t="shared" si="11"/>
+        <v>30412.482262572812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="N44">
         <v>18</v>
       </c>
-      <c r="O43" s="14">
-        <f>$S42</f>
+      <c r="O44" s="13">
+        <f>$S43</f>
         <v>30412.482262572812</v>
       </c>
-      <c r="P43" s="14">
-        <f>$P$26</f>
+      <c r="P44" s="13">
+        <f>$P$27</f>
         <v>4669.033918296218</v>
       </c>
-      <c r="Q43" s="15">
-        <f>VLOOKUP($M$26,$M$13:$S$20,5,FALSE)*$O43</f>
+      <c r="Q44" s="14">
+        <f>VLOOKUP($M$27,$M$14:$S$21,5,FALSE)*$O44</f>
         <v>557.56217481383487</v>
       </c>
-      <c r="R43" s="14">
-        <f>$P$27-$Q43</f>
+      <c r="R44" s="13">
+        <f>$P$28-$Q44</f>
         <v>4111.4717434823833</v>
       </c>
-      <c r="S43" s="14">
-        <f>$O43-$R43</f>
+      <c r="S44" s="13">
+        <f>$O44-$R44</f>
         <v>26301.010519090429</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N44">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="N45">
         <v>19</v>
       </c>
-      <c r="O44" s="14">
-        <f t="shared" ref="O44:O49" si="14">$S43</f>
+      <c r="O45" s="13">
+        <f t="shared" ref="O45:O46" si="13">$S44</f>
         <v>26301.010519090429</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P45" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q45" s="14">
         <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q44" s="15">
+        <v>482.18519284999121</v>
+      </c>
+      <c r="R45" s="13">
         <f t="shared" si="10"/>
-        <v>482.18519284999121</v>
-      </c>
-      <c r="R44" s="14">
+        <v>4186.848725446227</v>
+      </c>
+      <c r="S45" s="13">
         <f t="shared" si="11"/>
-        <v>4186.848725446227</v>
-      </c>
-      <c r="S44" s="14">
-        <f t="shared" si="12"/>
         <v>22114.161793644202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N45">
-        <v>20</v>
-      </c>
-      <c r="O45" s="14">
-        <f t="shared" si="14"/>
-        <v>22114.161793644202</v>
-      </c>
-      <c r="P45" s="14">
-        <f t="shared" si="9"/>
-        <v>4669.033918296218</v>
-      </c>
-      <c r="Q45" s="15">
-        <f t="shared" si="10"/>
-        <v>405.42629955014371</v>
-      </c>
-      <c r="R45" s="14">
-        <f t="shared" si="11"/>
-        <v>4263.607618746074</v>
-      </c>
-      <c r="S45" s="14">
-        <f t="shared" si="12"/>
-        <v>17850.554174898127</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N46">
-        <v>21</v>
-      </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="O46" s="13">
+        <f t="shared" si="13"/>
+        <v>22114.161793644202</v>
+      </c>
+      <c r="P46" s="13">
+        <f t="shared" si="8"/>
+        <v>4669.033918296218</v>
+      </c>
+      <c r="Q46" s="14">
+        <f t="shared" si="9"/>
+        <v>405.42629955014371</v>
+      </c>
+      <c r="R46" s="13">
+        <f t="shared" si="10"/>
+        <v>4263.607618746074</v>
+      </c>
+      <c r="S46" s="13">
+        <f t="shared" si="11"/>
+        <v>17850.554174898127</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N47">
-        <v>22</v>
-      </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N48">
-        <v>23</v>
-      </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
     </row>
     <row r="49" spans="13:19" x14ac:dyDescent="0.25">
       <c r="N49">
+        <v>23</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+    </row>
+    <row r="50" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="N50">
         <v>24</v>
       </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-    </row>
-    <row r="50" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M50" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N50" s="16"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="16">
-        <f>SUBTOTAL(9,Q26:Q49)</f>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+    </row>
+    <row r="51" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="N51" s="15"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="15">
+        <f>SUBTOTAL(9,Q27:Q50)</f>
         <v>21231.232540822486</v>
       </c>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M52" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M10:S10"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="V9:V10 V12">
+  <conditionalFormatting sqref="V10:V11 V13">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2 Q2">
+  <conditionalFormatting sqref="N3:O3 Q3">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K22">
+  <conditionalFormatting sqref="K4:K23">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="L">
-      <formula>NOT(ISERROR(SEARCH("L",K3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("L",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I22">
+  <conditionalFormatting sqref="I4:I23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="L">
-      <formula>NOT(ISERROR(SEARCH("L",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("L",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M20 M25:M26" xr:uid="{58C9453E-810E-46A2-9140-433AE25A9689}">
-      <formula1>$A$3:$A$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13:M21 M26:M27" xr:uid="{58C9453E-810E-46A2-9140-433AE25A9689}">
+      <formula1>$A$4:$A$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23" xr:uid="{59038AD0-06A5-45B2-A516-1150ACDC566C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24" xr:uid="{59038AD0-06A5-45B2-A516-1150ACDC566C}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:P20" xr:uid="{CCE4B299-799C-49F8-9BF3-74844DA3BD82}">
-      <formula1>$M$3:$M$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P13:P21" xr:uid="{CCE4B299-799C-49F8-9BF3-74844DA3BD82}">
+      <formula1>$M$4:$M$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I22 A33:A43" xr:uid="{9781CD54-274E-46E2-9B20-3966F951C1AB}">
-      <formula1>$N$3:$N$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I23 A35:A45" xr:uid="{9781CD54-274E-46E2-9B20-3966F951C1AB}">
+      <formula1>$N$4:$N$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2793,86 +2852,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2948F1-41ED-4845-B835-3AA9AD73C7B6}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="L1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="L1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="23"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="23"/>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2895,8 +2957,8 @@
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>77</v>
+      <c r="I4" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
@@ -2904,13 +2966,13 @@
       <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="14">
         <v>83906.583208238793</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>0.2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="14">
         <f>N4*O4</f>
         <v>16781.316641647758</v>
       </c>
@@ -2919,29 +2981,29 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="42">
         <v>262.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="43">
         <v>1650</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="43">
         <v>641.66666666666674</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="43">
         <v>1916.666666666667</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="43">
         <v>1166.6666666666667</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="43">
         <v>1610.0000000000002</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="43">
         <v>1916.666666666667</v>
       </c>
-      <c r="I5" s="30">
-        <f>SUBTOTAL(9,$B5:$H5)</f>
+      <c r="I5" s="44">
+        <f t="shared" ref="I5:I28" si="0">SUBTOTAL(9,$B5:$H5)</f>
         <v>9164.1666666666679</v>
       </c>
     </row>
@@ -2949,29 +3011,29 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="42">
         <v>247.04468587017058</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="43">
         <v>1594.651044831236</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="43">
         <v>612.9950068511954</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="43">
         <v>1773.089828551191</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="43">
         <v>1114.5363760930827</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="43">
         <v>1489.3954559830004</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="43">
         <v>1773.089828551191</v>
       </c>
-      <c r="I6" s="30">
-        <f>SUBTOTAL(9,$B6:$H6)</f>
+      <c r="I6" s="44">
+        <f t="shared" si="0"/>
         <v>8604.8022267310662</v>
       </c>
     </row>
@@ -2979,106 +3041,106 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="42">
         <v>231.31890374306917</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="43">
         <v>1538.2873588177113</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="43">
         <v>583.98884433787703</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="43">
         <v>1626.7611010385015</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="43">
         <v>1061.7978987961401</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="43">
         <v>1366.4793248723415</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="43">
         <v>1626.7611010385015</v>
       </c>
-      <c r="I7" s="30">
-        <f>SUBTOTAL(9,$B7:$H7)</f>
+      <c r="I7" s="44">
+        <f t="shared" si="0"/>
         <v>8035.3945326441417</v>
       </c>
-      <c r="L7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="36"/>
+      <c r="L7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="42">
         <v>215.31792042874349</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="43">
         <v>1480.8903385606054</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="43">
         <v>554.64427659523653</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="43">
         <v>1477.627739581819</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="43">
         <v>1008.4441392640665</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="43">
         <v>1241.2073012487283</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="43">
         <v>1477.627739581819</v>
       </c>
-      <c r="I8" s="30">
-        <f>SUBTOTAL(9,$B8:$H8)</f>
+      <c r="I8" s="44">
+        <f t="shared" si="0"/>
         <v>7455.759455261018</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="42">
         <v>199.0369199064171</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="43">
         <v>1422.4410395987859</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="43">
         <v>524.95735556226532</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="43">
         <v>1325.6359886972166</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="43">
         <v>954.46791920411874</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="43">
         <v>1113.5342305056624</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="43">
         <v>1325.6359886972166</v>
       </c>
-      <c r="I9" s="30">
-        <f>SUBTOTAL(9,$B9:$H9)</f>
+      <c r="I9" s="44">
+        <f t="shared" si="0"/>
         <v>6865.7094421716829</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9">
-        <f>'Loan Manangement System'!C27</f>
+        <f>'Loan Manangement System'!B29</f>
         <v>70000</v>
       </c>
     </row>
@@ -3086,36 +3148,36 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="43">
         <v>182.47100187495002</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="43">
         <v>1362.9201701559996</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="43">
         <v>494.92408711724266</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="43">
         <v>1170.7310625873261</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="43">
         <v>899.86197657680498</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="43">
         <v>983.41409257335442</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="43">
         <v>1170.7310625873261</v>
       </c>
-      <c r="I10" s="30">
-        <f>SUBTOTAL(9,$B10:$H10)</f>
+      <c r="I10" s="44">
+        <f t="shared" si="0"/>
         <v>6265.0534534730041</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
       </c>
       <c r="M10">
-        <f>'Loan Manangement System'!G23</f>
+        <f>'Loan Manangement System'!G24</f>
         <v>1265948</v>
       </c>
     </row>
@@ -3123,35 +3185,35 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="43">
         <v>165.61518027793224</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="43">
         <v>1302.3080847734291</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="43">
         <v>464.54043054036146</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="43">
         <v>1012.8571253936627</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="43">
         <v>844.61896461883907</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="43">
         <v>850.79998533067726</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="43">
         <v>1012.8571253936627</v>
       </c>
-      <c r="I11" s="30">
-        <f>SUBTOTAL(9,$B11:$H11)</f>
+      <c r="I11" s="44">
+        <f t="shared" si="0"/>
         <v>5653.5968963285641</v>
       </c>
       <c r="L11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11">
+        <v>93</v>
+      </c>
+      <c r="M11" s="14">
         <f>P4</f>
         <v>16781.316641647758</v>
       </c>
@@ -3160,35 +3222,35 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="43">
         <v>148.46438180296664</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="43">
         <v>1240.5847778255113</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="43">
         <v>433.80229797008332</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="43">
         <v>851.95727107045423</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="43">
         <v>788.73145085469707</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="43">
         <v>715.6441076991822</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="43">
         <v>851.95727107045423</v>
       </c>
-      <c r="I12" s="30">
-        <f>SUBTOTAL(9,$B12:$H12)</f>
+      <c r="I12" s="44">
+        <f t="shared" si="0"/>
         <v>5031.1415582933487</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12">
+        <v>94</v>
+      </c>
+      <c r="M12" s="43">
         <f>I29</f>
         <v>80538.125167200051</v>
       </c>
@@ -3197,35 +3259,35 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="43">
         <v>131.01344435468917</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="43">
         <v>1177.7298769168815</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="43">
         <v>402.70555385315191</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="43">
         <v>687.97350287271752</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="43">
         <v>732.19191609663994</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="43">
         <v>577.89774241308328</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="43">
         <v>687.97350287271752</v>
       </c>
-      <c r="I13" s="30">
-        <f>SUBTOTAL(9,$B13:$H13)</f>
+      <c r="I13" s="44">
+        <f t="shared" si="0"/>
         <v>4397.4855393798807</v>
       </c>
-      <c r="L13" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="38">
+      <c r="L13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="46">
         <f>SUM(M9:M12)</f>
         <v>1433267.4418088479</v>
       </c>
@@ -3234,29 +3296,29 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="43">
         <v>113.25711550106682</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="43">
         <v>1113.7226361582605</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="43">
         <v>371.24601438818962</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="43">
         <v>520.8467124511908</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="43">
         <v>674.99275343307215</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="43">
         <v>437.51123845900088</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="43">
         <v>520.8467124511908</v>
       </c>
-      <c r="I14" s="30">
-        <f>SUBTOTAL(9,$B14:$H14)</f>
+      <c r="I14" s="44">
+        <f t="shared" si="0"/>
         <v>3752.4231828419715</v>
       </c>
     </row>
@@ -3264,29 +3326,29 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="43">
         <v>95.190050892506093</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="43">
         <v>1048.5419293190646</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="43">
         <v>339.41944696280279</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="43">
         <v>350.51665854658489</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="43">
         <v>617.12626720509604</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="43">
         <v>294.4339931791319</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="43">
         <v>350.51665854658489</v>
       </c>
-      <c r="I15" s="30">
-        <f>SUBTOTAL(9,$B15:$H15)</f>
+      <c r="I15" s="44">
+        <f t="shared" si="0"/>
         <v>3095.7450046517715</v>
       </c>
     </row>
@@ -3294,65 +3356,65 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="43">
         <v>76.806812653295552</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="43">
         <v>982.16624285448347</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="43">
         <v>307.22156958411978</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="43">
         <v>176.92194527547395</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="43">
         <v>558.58467197112702</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="43">
         <v>148.61443403139879</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="43">
         <v>176.92194527547395</v>
       </c>
-      <c r="I16" s="30">
-        <f>SUBTOTAL(9,$B16:$H16)</f>
+      <c r="I16" s="44">
+        <f t="shared" si="0"/>
         <v>2427.2376216453731</v>
       </c>
-      <c r="L16" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="L16" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="43">
         <v>58.101867744898819</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="43">
         <v>914.5736688047183</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="43">
         <v>274.64805030268548</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="43">
+        <v>0</v>
+      </c>
+      <c r="F17" s="43">
         <v>499.3600914594283</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <f>SUBTOTAL(9,$B17:$H17)</f>
+      <c r="G17" s="43">
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
+        <v>0</v>
+      </c>
+      <c r="I17" s="44">
+        <f t="shared" si="0"/>
         <v>1746.683678311731</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -3362,39 +3424,39 @@
         <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="43">
         <v>39.069586300605138</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="43">
         <v>845.74189756404076</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="43">
         <v>241.69450662963445</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
+      <c r="F18" s="43">
         <v>439.44455750842639</v>
       </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <f>SUBTOTAL(9,$B18:$H18)</f>
+      <c r="G18" s="43">
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <v>0</v>
+      </c>
+      <c r="I18" s="44">
+        <f t="shared" si="0"/>
         <v>1565.9505480027067</v>
       </c>
       <c r="L18" t="s">
@@ -3403,11 +3465,11 @@
       <c r="M18">
         <v>36552</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <f>($M18/$M$38)</f>
         <v>2.8873223860695699E-2</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="14">
         <f>$N18*$M$13</f>
         <v>41383.05169959351</v>
       </c>
@@ -3416,29 +3478,29 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="43">
         <v>19.704239931036323</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="43">
         <v>775.64821051728416</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="43">
         <v>208.35650494706445</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="43">
+        <v>0</v>
+      </c>
+      <c r="F19" s="43">
         <v>378.83000899466276</v>
       </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <f>SUBTOTAL(9,$B19:$H19)</f>
+      <c r="G19" s="43">
+        <v>0</v>
+      </c>
+      <c r="H19" s="43">
+        <v>0</v>
+      </c>
+      <c r="I19" s="44">
+        <f t="shared" si="0"/>
         <v>1382.5389643900476</v>
       </c>
       <c r="L19" t="s">
@@ -3447,12 +3509,12 @@
       <c r="M19">
         <v>104880</v>
       </c>
-      <c r="N19" s="11">
-        <f t="shared" ref="N19:N38" si="0">($M19/$M$38)</f>
+      <c r="N19" s="10">
+        <f t="shared" ref="N19:N38" si="1">($M19/$M$38)</f>
         <v>8.2847004774287733E-2</v>
       </c>
-      <c r="O19">
-        <f t="shared" ref="O19:O37" si="1">$N19*$M$13</f>
+      <c r="O19" s="14">
+        <f t="shared" ref="O19:O38" si="2">$N19*$M$13</f>
         <v>118741.91459436879</v>
       </c>
     </row>
@@ -3460,29 +3522,29 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="43">
+        <v>0</v>
+      </c>
+      <c r="C20" s="43">
         <v>704.269472541337</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="43">
         <v>174.62955991153117</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="43">
+        <v>0</v>
+      </c>
+      <c r="F20" s="43">
         <v>317.50829074823861</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30">
-        <f>SUBTOTAL(9,$B20:$H20)</f>
+      <c r="G20" s="43">
+        <v>0</v>
+      </c>
+      <c r="H20" s="43">
+        <v>0</v>
+      </c>
+      <c r="I20" s="44">
+        <f t="shared" si="0"/>
         <v>1196.4073232011067</v>
       </c>
       <c r="L20" t="s">
@@ -3491,12 +3553,12 @@
       <c r="M20">
         <v>117120</v>
       </c>
-      <c r="N20" s="11">
-        <f t="shared" si="0"/>
+      <c r="N20" s="10">
+        <f t="shared" si="1"/>
         <v>9.2515648352065008E-2</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
+      <c r="O20" s="14">
+        <f t="shared" si="2"/>
         <v>132599.66664085118</v>
       </c>
     </row>
@@ -3504,29 +3566,29 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="43">
+        <v>0</v>
+      </c>
+      <c r="C21" s="43">
         <v>631.58212436916415</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="43">
         <v>140.50913385058331</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="43">
+        <v>0</v>
+      </c>
+      <c r="F21" s="43">
         <v>255.47115245560613</v>
       </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <f>SUBTOTAL(9,$B21:$H21)</f>
+      <c r="G21" s="43">
+        <v>0</v>
+      </c>
+      <c r="H21" s="43">
+        <v>0</v>
+      </c>
+      <c r="I21" s="44">
+        <f t="shared" si="0"/>
         <v>1027.5624106753537</v>
       </c>
       <c r="L21" t="s">
@@ -3535,12 +3597,12 @@
       <c r="M21">
         <v>87744</v>
       </c>
-      <c r="N21" s="11">
-        <f t="shared" si="0"/>
+      <c r="N21" s="10">
+        <f t="shared" si="1"/>
         <v>6.9310903765399529E-2</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
+      <c r="O21" s="14">
+        <f t="shared" si="2"/>
         <v>99341.061729293433</v>
       </c>
     </row>
@@ -3548,29 +3610,29 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="43">
+        <v>0</v>
+      </c>
+      <c r="C22" s="43">
         <v>557.56217481383487</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="43">
         <v>105.99063615225776</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="43">
+        <v>0</v>
+      </c>
+      <c r="F22" s="43">
         <v>192.71024754955963</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="30">
-        <f>SUBTOTAL(9,$B22:$H22)</f>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="43">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
+        <f t="shared" si="0"/>
         <v>856.26305851565235</v>
       </c>
       <c r="L22" t="s">
@@ -3579,12 +3641,12 @@
       <c r="M22">
         <v>67632</v>
       </c>
-      <c r="N22" s="11">
-        <f t="shared" si="0"/>
+      <c r="N22" s="10">
+        <f t="shared" si="1"/>
         <v>5.3423995298385082E-2</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
+      <c r="O22" s="14">
+        <f t="shared" si="2"/>
         <v>76570.873072524308</v>
       </c>
     </row>
@@ -3592,29 +3654,29 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="43">
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
         <v>482.18519284999121</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="43">
         <v>71.069422647451731</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
+      <c r="F23" s="43">
         <v>129.21713208627594</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="30">
-        <f>SUBTOTAL(9,$B23:$H23)</f>
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
+        <f t="shared" si="0"/>
         <v>682.47174758371887</v>
       </c>
       <c r="L23" t="s">
@@ -3623,12 +3685,12 @@
       <c r="M23">
         <v>68832</v>
       </c>
-      <c r="N23" s="11">
-        <f t="shared" si="0"/>
+      <c r="N23" s="10">
+        <f t="shared" si="1"/>
         <v>5.4371901531500504E-2</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
+      <c r="O23" s="14">
+        <f t="shared" si="2"/>
         <v>77929.476214336304</v>
       </c>
     </row>
@@ -3636,29 +3698,29 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="43">
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
         <v>405.42629955014371</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="43">
         <v>35.740794985089636</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="43">
+        <v>0</v>
+      </c>
+      <c r="F24" s="43">
         <v>64.983263609253953</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="30">
-        <f>SUBTOTAL(9,$B24:$H24)</f>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
+        <f t="shared" si="0"/>
         <v>506.15035814448731</v>
       </c>
       <c r="L24" t="s">
@@ -3667,12 +3729,12 @@
       <c r="M24">
         <v>86952</v>
       </c>
-      <c r="N24" s="11">
-        <f t="shared" si="0"/>
+      <c r="N24" s="10">
+        <f t="shared" si="1"/>
         <v>6.8685285651543346E-2</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
+      <c r="O24" s="14">
+        <f t="shared" si="2"/>
         <v>98444.3836556975</v>
       </c>
     </row>
@@ -3680,29 +3742,29 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="43">
+        <v>0</v>
+      </c>
+      <c r="C25" s="43">
         <v>327.26015987313235</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="30">
-        <f>SUBTOTAL(9,$B25:$H25)</f>
+      <c r="D25" s="43">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
         <v>327.26015987313235</v>
       </c>
       <c r="L25" t="s">
@@ -3711,12 +3773,12 @@
       <c r="M25">
         <v>61488</v>
       </c>
-      <c r="N25" s="11">
-        <f t="shared" si="0"/>
+      <c r="N25" s="10">
+        <f t="shared" si="1"/>
         <v>4.857071538483413E-2</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
+      <c r="O25" s="14">
+        <f t="shared" si="2"/>
         <v>69614.824986446867</v>
       </c>
     </row>
@@ -3724,29 +3786,29 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="43">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
         <v>247.66097430204243</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="30">
-        <f>SUBTOTAL(9,$B26:$H26)</f>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="43">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" si="0"/>
         <v>247.66097430204243</v>
       </c>
       <c r="L26" t="s">
@@ -3755,12 +3817,12 @@
       <c r="M26">
         <v>34968</v>
       </c>
-      <c r="N26" s="11">
-        <f t="shared" si="0"/>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
         <v>2.7621987632983347E-2</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
+      <c r="O26" s="14">
+        <f t="shared" si="2"/>
         <v>39589.695552401674</v>
       </c>
     </row>
@@ -3768,29 +3830,29 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="43">
+        <v>0</v>
+      </c>
+      <c r="C27" s="43">
         <v>166.60247032881588</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <f>SUBTOTAL(9,$B27:$H27)</f>
+      <c r="D27" s="43">
+        <v>0</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0</v>
+      </c>
+      <c r="H27" s="43">
+        <v>0</v>
+      </c>
+      <c r="I27" s="44">
+        <f t="shared" si="0"/>
         <v>166.60247032881588</v>
       </c>
       <c r="L27" t="s">
@@ -3799,12 +3861,12 @@
       <c r="M27">
         <v>37320</v>
       </c>
-      <c r="N27" s="11">
-        <f t="shared" si="0"/>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
         <v>2.947988384988957E-2</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
+      <c r="O27" s="14">
+        <f t="shared" si="2"/>
         <v>42252.557710353198</v>
       </c>
     </row>
@@ -3812,29 +3874,29 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="43">
+        <v>0</v>
+      </c>
+      <c r="C28" s="43">
         <v>84.057893782746859</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
-        <f>SUBTOTAL(9,$B28:$H28)</f>
+      <c r="D28" s="43">
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0</v>
+      </c>
+      <c r="F28" s="43">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>0</v>
+      </c>
+      <c r="H28" s="43">
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="0"/>
         <v>84.057893782746859</v>
       </c>
       <c r="L28" t="s">
@@ -3843,48 +3905,48 @@
       <c r="M28">
         <v>39000</v>
       </c>
-      <c r="N28" s="11">
-        <f t="shared" si="0"/>
+      <c r="N28" s="10">
+        <f t="shared" si="1"/>
         <v>3.0806952576251156E-2</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
+      <c r="O28" s="14">
+        <f t="shared" si="2"/>
         <v>44154.602108889994</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="17">
-        <f>SUBTOTAL(9,B$5:B$28)</f>
+      <c r="A29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="45">
+        <f t="shared" ref="B29:H29" si="3">SUBTOTAL(9,B$5:B$28)</f>
         <v>2184.9121112823477</v>
       </c>
-      <c r="C29" s="17">
-        <f>SUBTOTAL(9,C$5:C$28)</f>
+      <c r="C29" s="45">
+        <f t="shared" si="3"/>
         <v>22056.814039109224</v>
       </c>
-      <c r="D29" s="17">
-        <f>SUBTOTAL(9,D$5:D$28)</f>
+      <c r="D29" s="45">
+        <f t="shared" si="3"/>
         <v>6984.7501598554918</v>
       </c>
-      <c r="E29" s="17">
-        <f>SUBTOTAL(9,E$5:E$28)</f>
+      <c r="E29" s="45">
+        <f t="shared" si="3"/>
         <v>12891.585602732805</v>
       </c>
-      <c r="F29" s="17">
-        <f>SUBTOTAL(9,F$5:F$28)</f>
+      <c r="F29" s="45">
+        <f t="shared" si="3"/>
         <v>12699.545745191803</v>
       </c>
-      <c r="G29" s="17">
-        <f>SUBTOTAL(9,G$5:G$28)</f>
+      <c r="G29" s="45">
+        <f t="shared" si="3"/>
         <v>10828.931906295558</v>
       </c>
-      <c r="H29" s="17">
-        <f>SUBTOTAL(9,H$5:H$28)</f>
+      <c r="H29" s="45">
+        <f t="shared" si="3"/>
         <v>12891.585602732805</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="45">
         <f>SUM(B29:H29)</f>
         <v>80538.125167200051</v>
       </c>
@@ -3894,12 +3956,12 @@
       <c r="M29">
         <v>59760</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" si="0"/>
+      <c r="N29" s="10">
+        <f t="shared" si="1"/>
         <v>4.7205730409147925E-2</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
+      <c r="O29" s="14">
+        <f t="shared" si="2"/>
         <v>67658.436462237587</v>
       </c>
     </row>
@@ -3910,12 +3972,12 @@
       <c r="M30">
         <v>73920</v>
       </c>
-      <c r="N30" s="11">
-        <f t="shared" si="0"/>
+      <c r="N30" s="10">
+        <f t="shared" si="1"/>
         <v>5.8391023959909888E-2</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="1"/>
+      <c r="O30" s="14">
+        <f t="shared" si="2"/>
         <v>83689.953535619192</v>
       </c>
     </row>
@@ -3926,12 +3988,12 @@
       <c r="M31">
         <v>14280</v>
       </c>
-      <c r="N31" s="11">
-        <f t="shared" si="0"/>
+      <c r="N31" s="10">
+        <f t="shared" si="1"/>
         <v>1.1280084174073501E-2</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="1"/>
+      <c r="O31" s="14">
+        <f t="shared" si="2"/>
         <v>16167.377387562799</v>
       </c>
     </row>
@@ -3942,12 +4004,12 @@
       <c r="M32">
         <v>31040</v>
       </c>
-      <c r="N32" s="11">
-        <f t="shared" si="0"/>
+      <c r="N32" s="10">
+        <f t="shared" si="1"/>
         <v>2.4519174563252203E-2</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
+      <c r="O32" s="14">
+        <f t="shared" si="2"/>
         <v>35142.53460153706</v>
       </c>
     </row>
@@ -3958,12 +4020,12 @@
       <c r="M33">
         <v>89760</v>
       </c>
-      <c r="N33" s="11">
-        <f t="shared" si="0"/>
+      <c r="N33" s="10">
+        <f t="shared" si="1"/>
         <v>7.0903386237033433E-2</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
+      <c r="O33" s="14">
+        <f t="shared" si="2"/>
         <v>101623.51500753759</v>
       </c>
     </row>
@@ -3974,12 +4036,12 @@
       <c r="M34">
         <v>56160</v>
       </c>
-      <c r="N34" s="11">
-        <f t="shared" si="0"/>
+      <c r="N34" s="10">
+        <f t="shared" si="1"/>
         <v>4.4362011709801669E-2</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
+      <c r="O34" s="14">
+        <f t="shared" si="2"/>
         <v>63582.627036801598</v>
       </c>
     </row>
@@ -3990,12 +4052,12 @@
       <c r="M35">
         <v>39760</v>
       </c>
-      <c r="N35" s="11">
-        <f t="shared" si="0"/>
+      <c r="N35" s="10">
+        <f t="shared" si="1"/>
         <v>3.1407293190557593E-2</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
+      <c r="O35" s="14">
+        <f t="shared" si="2"/>
         <v>45015.050765370928</v>
       </c>
     </row>
@@ -4006,12 +4068,12 @@
       <c r="M36">
         <v>95400</v>
       </c>
-      <c r="N36" s="11">
-        <f t="shared" si="0"/>
+      <c r="N36" s="10">
+        <f t="shared" si="1"/>
         <v>7.5358545532675902E-2</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
+      <c r="O36" s="14">
+        <f t="shared" si="2"/>
         <v>108008.94977405398</v>
       </c>
     </row>
@@ -4022,33 +4084,33 @@
       <c r="M37">
         <v>63380</v>
       </c>
-      <c r="N37" s="11">
-        <f t="shared" si="0"/>
+      <c r="N37" s="10">
+        <f t="shared" si="1"/>
         <v>5.0065247545712781E-2</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
+      <c r="O37" s="14">
+        <f t="shared" si="2"/>
         <v>71756.889273370456</v>
       </c>
     </row>
     <row r="38" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K38" s="34"/>
-      <c r="L38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="41">
+      <c r="K38" s="24"/>
+      <c r="L38" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="26">
         <f>SUBTOTAL(9,M18:M37)</f>
         <v>1265948</v>
       </c>
-      <c r="N38" s="43">
-        <f t="shared" si="0"/>
+      <c r="N38" s="28">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O38" s="41">
-        <f>SUM(O18:O37)</f>
-        <v>1433267.4418088477</v>
-      </c>
-      <c r="P38" s="34"/>
+      <c r="O38" s="47">
+        <f t="shared" si="2"/>
+        <v>1433267.4418088479</v>
+      </c>
+      <c r="P38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4067,7 +4129,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{557AD8DD-77B4-4A29-A310-2690FA4949C1}">
           <x14:formula1>
-            <xm:f>'Loan Manangement System'!$A$3:$A$22</xm:f>
+            <xm:f>'Loan Manangement System'!$A$4:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>B4:H4 L17:L37</xm:sqref>
         </x14:dataValidation>

--- a/Loan Management System.xlsx
+++ b/Loan Management System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms Konya\Downloads\Fablab -Data Analytics and visualization\Excel\LoanManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217780E-35A7-4EDE-A81F-65D9B6143C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2CF1F-BADF-4EAD-8595-C04F25BFB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D45ECFA9-0EF8-446D-AF0B-F9EF2BA9B9A2}"/>
   </bookViews>
@@ -958,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AF8D1-B484-497E-9163-B0A68CAA0D33}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,6 +2787,9 @@
       <c r="S50" s="13"/>
     </row>
     <row r="51" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M51" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="N51" s="15"/>
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
@@ -2796,11 +2799,6 @@
       </c>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
-    </row>
-    <row r="52" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M52" s="15" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
